--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5E36A8-CDC5-054A-8D6A-A7F5A92FC8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08BB613-D530-5C42-901A-7993CF756B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="미니게임 시작 화면" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>1. 미니게임 첫 시작 화면</t>
   </si>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 1) 모든 게임은 3 &gt; 2 &gt; 1 &gt; start 문구가 차례로 노출된 후 시작한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>각 요소별 노출 시간은 다음과 같다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -72,19 +68,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2) 단, 튜토리얼 요소가 있는 경우에는 튜토리얼 &gt; 3 &gt; 2&gt; 1&gt; START 요소 순서로 노출된 후 시작된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>튜토리얼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>공통요소 Ui는 공통 폴더에 위치해 있다. (이후 언급되지 않음에 유의한다.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) 모든 게임은 최초 1번, 튜토리얼 &gt; 3 &gt; 2 &gt; 1 &gt; start 문구가 차례로 노출된 후 시작한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2) 2번째 이후의 플레이부터는 3 &gt; 2 &gt; 1 &gt; start 문구가 차례로 노출된 후 시작한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +129,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -222,14 +233,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,54 +556,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BE606-6101-AA4F-9339-BF222BD0FB90}">
-  <dimension ref="B3:G16"/>
+  <dimension ref="B3:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="2:7" ht="19" thickBot="1">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="2:3" ht="19" thickBot="1">
       <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
@@ -600,7 +614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:3">
       <c r="B12" s="4">
         <v>3</v>
       </c>
@@ -608,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:3">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -616,7 +630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:3">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -624,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
@@ -632,14 +646,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="8"/>
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08BB613-D530-5C42-901A-7993CF756B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9ABCFC-515D-B441-A8BC-7B31204F1648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="2" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
-    <sheet name="미니게임 시작 화면" sheetId="1" r:id="rId1"/>
+    <sheet name="목차" sheetId="6" r:id="rId1"/>
+    <sheet name="1. 게임 최초 시작과 마이룸" sheetId="2" r:id="rId2"/>
+    <sheet name="2. 꾸미기 요소" sheetId="4" r:id="rId3"/>
+    <sheet name="3. 꾸미기 튜토리얼" sheetId="7" r:id="rId4"/>
+    <sheet name="4. 미니게임 시작 화면" sheetId="1" r:id="rId5"/>
+    <sheet name="5. 미니게임 스토리" sheetId="5" r:id="rId6"/>
+    <sheet name="6. 미니게임 종료 화면" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,13 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>1. 미니게임 첫 시작 화면</t>
-  </si>
-  <si>
-    <t>1.0 공통요소</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -89,6 +89,404 @@
   </si>
   <si>
     <t>3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2) 게임 시작 버튼을 누르면 즉시 '마이룸'으로 이동한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 메인 화면 상단에는 플레이어가 보유하고 있는 총 재화가 표시된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[상점 기획서 확인]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 최초 동작 시에는 미니게임 2개가 열려 있고, 3개는 자물쇠로 닫힌 형식이며 일정 점수 이상 획득 후 오픈된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4) 메인화면 상단에는 플레이어가 보유하고 있는 총 재화가 표시된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 미니게임 아이콘 5개가 차례로 위치한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 때 자물쇠 아이콘은 눌러도 어떤 액션도 하지 못한다. (점수 커트라인 타 기획서 확인)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 미니게임 아이콘 누른 경우 해당 미니게임으로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 게임 제목과 뒷 배경에 집 외형이 보인다. 제목 밑에 '게임 시작' 버튼이 위치한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 미니게임 실행 후 내부에 위치한(=설정2) 같은 아이콘을 쓰지만 내용이 다르다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3) 메인화면 하단에는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'마이룸(돌아가기), 상점, 설정'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 버튼이 위치한다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 설정 버튼은 각 미니게임별 기획서에 지시한 위치에 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계속하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 미니게임을 처음(0점)부터 시작한다. (스코어, 코인 저장 안 됨.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 그대로 하던 게임을 계속 진행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 목록 메인화면으로 돌아간다. (스코어, 코인, 저장 안됨.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 나가기, 재시작, 계속하기 요소를 포함한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. 게임 '앱' 실행 후 액션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. '마이룸' 이동 후 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0 최초 메인 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0 '게임 시작' 후 메인 화면(마이룸)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1  상점 메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 설정1 메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) 메인 화면 하단에는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'상점, 미니게임, 꾸미기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(목차2)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 설정'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 버튼이 위치한다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 미니게임 메인화면 (= 미니게임 목록)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 미니게임 첫 시작 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0 공통요소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 설정버튼 (설정2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.꾸미기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0 메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">아래 내용은 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임시작&gt;마이룸&gt;꾸미기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 이하의 액션들임에 유의한다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 기본적으로 보이는 것은 마이룸 그대로이며, 내부 가구와 버튼을 PUSH 했을 때의 화면이 달라진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 전제조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 각 가구는 본래의 위치가 고정되어 있으며, 플레이어는 추가, 교체, 삭제만이 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 플레이어가 본래 가지고 있는 가구를 선택하는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 해당 가구 창고가 열림.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1) 화면 하단에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '설정1, 돌아가기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=저장(마이룸)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 추가, 창고'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 버튼이 존재한다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 선택 후 '교체, 창고로 이동, 돌아가기(아무 액션x)' UI가 생성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어의 마이룸에서 사라진다. 창고에는 저장되어 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 플레이어가 추가 버튼을 누르는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 플레이어의 창고가 열린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 창고의 물품을 선택 시 마이룸에 가구가 추가된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 이미 배치되어 있는 가구를 선택하는 경우 자동으로 교체된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 플레이어가 창고 버튼을 누르는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽지, 바닥지, 창문, 카페트, 옷장, 침대, 꽃병, 전등, 식탁, 장식(음식=식탁 위)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 해당 목록에서 원하는 품목을 선택 시, 해당 가구만이 들어 있는 세부창고로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 각 아이템 품목을 한 번 더 누르면 '버리기, 돌아가기' 버튼이 생성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버리기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템이 플레이어의 창고에서 영구 삭제 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아가기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부창고 화면으로 돌아간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 처음 제공되는 가구는 창문, 카페트, 벽지, 바닥지이며, 상점에서 구매 후 추가 가능한 가구는 옷장, 침대, 꽃병, 전등, 식탁, 작식(식탁 위)이 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 창고 화면이 실행되고, 세부 가구 목록이 노출된다. 목록은 다음과 같다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 플레이어가 가지고 있는 가구 아이콘이 4x4 개수 비율로 노출된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4.0 플레이어가 창고의 품목 선택 후 이동한 세부 창고(ex. 창고 -&gt; 벽지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 가구가 없는 경우 비어있는 형태로 노출된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 모든 메인화면에는 '돌아가기' 요소가 오른쪽 하단에 존재한다. 특별한 언급이 없는 경우, 이 버튼은 모든 내용을 저장 후 즉시 마이룸 화면으로 돌아간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 화면 하단에 돌아가기 버튼은 바로 이전의 창고 화면 목록으로 돌아간다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -96,7 +494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,8 +534,17 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,8 +557,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -202,13 +615,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,6 +782,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,63 +1157,394 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA30E3-684C-2C4A-A121-E665FA8BFDFA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
+  <dimension ref="B3:B28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="23">
+      <c r="B3" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="23">
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
+  <dimension ref="B3:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="23">
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="19" thickBot="1">
+      <c r="B17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="2:7" ht="19" thickTop="1">
+      <c r="B18" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="19" thickBot="1">
+      <c r="C32" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+    </row>
+    <row r="33" spans="3:7" ht="19" thickTop="1">
+      <c r="C33" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B90982-F20D-AF41-81F0-4A32B272D676}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BE606-6101-AA4F-9339-BF222BD0FB90}">
-  <dimension ref="B3:C16"/>
+  <dimension ref="B3:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="2:3" ht="19" thickBot="1">
       <c r="B11" s="6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -619,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -627,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:3">
@@ -635,27 +1568,109 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624540-7EAE-9D40-A1F4-261D478CFCF8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1FC61F-C12D-BD44-B1EE-B942615260F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9ABCFC-515D-B441-A8BC-7B31204F1648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249A468-5A2D-4140-8898-D1BD396678E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="2" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
     <sheet name="1. 게임 최초 시작과 마이룸" sheetId="2" r:id="rId2"/>
     <sheet name="2. 꾸미기 요소" sheetId="4" r:id="rId3"/>
-    <sheet name="3. 꾸미기 튜토리얼" sheetId="7" r:id="rId4"/>
+    <sheet name="3. 튜토리얼" sheetId="7" r:id="rId4"/>
     <sheet name="4. 미니게임 시작 화면" sheetId="1" r:id="rId5"/>
     <sheet name="5. 미니게임 스토리" sheetId="5" r:id="rId6"/>
     <sheet name="6. 미니게임 종료 화면" sheetId="3" r:id="rId7"/>
+    <sheet name="7. 캐릭터" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,14 +98,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2) 메인 화면 상단에는 플레이어가 보유하고 있는 총 재화가 표시된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[상점 기획서 확인]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2) 최초 동작 시에는 미니게임 2개가 열려 있고, 3개는 자물쇠로 닫힌 형식이며 일정 점수 이상 획득 후 오픈된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -116,19 +110,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이 때 자물쇠 아이콘은 눌러도 어떤 액션도 하지 못한다. (점수 커트라인 타 기획서 확인)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5) 미니게임 아이콘 누른 경우 해당 미니게임으로 이동한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1) 게임 제목과 뒷 배경에 집 외형이 보인다. 제목 밑에 '게임 시작' 버튼이 위치한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2) </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -185,10 +171,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>말 그대로 하던 게임을 계속 진행한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>미니게임 목록 메인화면으로 돌아간다. (스코어, 코인, 저장 안됨.)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -213,70 +195,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.1  상점 메인화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3 설정1 메인화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1) 메인 화면 하단에는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'상점, 미니게임, 꾸미기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(목차2)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 설정'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 버튼이 위치한다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2 미니게임 메인화면 (= 미니게임 목록)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 미니게임 첫 시작 화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -290,10 +208,6 @@
   </si>
   <si>
     <t>2.꾸미기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0 메인화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -334,10 +248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1) 각 가구는 본래의 위치가 고정되어 있으며, 플레이어는 추가, 교체, 삭제만이 가능하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2.2 플레이어가 본래 가지고 있는 가구를 선택하는 경우</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -346,7 +256,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어의 해당 가구 창고가 열림.</t>
+    <t xml:space="preserve">플레이어의 마이룸에서 사라진다. 창고에는 저장되어 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 해당 목록에서 원하는 품목을 선택 시, 해당 가구만이 들어 있는 세부창고로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌아가기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 플레이어가 창고 버튼을 누르는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.0 플레이어가 창고의 품목 선택 후 이동한 세부 창고(ex. 창고 -&gt; 벽지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 메인 화면 상단에는 플레이어가 보유하고 있는 총 재화와 설정 버튼이 표시된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 각 아이템 품목을 한 번 더 누르면 '배치'버튼이 생성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 아이템이 추가된다. 이미 플레이어가 가지고 있는 가구인 경우 교체된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 플레이어가 가지고 있는 가구 아이콘이 3*3개수 비율로 노출된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 가구가 아예 없는 경우 비어있는 형태로 노출된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 배치 버튼이 생성된 이후, 배치 버튼 이외의 다른 공간을 누르면 배치버튼이 사라진다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 처음 제공되는 가구는 창문, 카페트, 벽지, 바닥재이며, 상점에서 구매 후 추가 가능한 가구는 선반, 침대, 꽃병, 전등, 식탁, 장식(선반위), 음식(식탁위)이 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽지, 바닥재, 창문, 카페트, 선반, 침대, 꽃병, 전등, 식탁, 장식, 음식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 화면 상단 오른쪽의 돌아가기 버튼은 바로 이전의 창고 화면 목록으로 돌아간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2) 배경 사운드와 효과음 사운드를 ON/OFF 할 수 있다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 튜토리얼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 때 자물쇠 아이콘은 눌러도 어떤 액션도 하지 못한다. (해금 커트라인 타 기획서 확인)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 내용을 저장 후 마이룸으로 이동한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -363,7 +349,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> '설정1, 돌아가기</t>
+      <t xml:space="preserve"> '돌아가기</t>
     </r>
     <r>
       <rPr>
@@ -386,7 +372,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, 추가, 창고'</t>
+      <t>, 창고'</t>
     </r>
     <r>
       <rPr>
@@ -397,96 +383,329 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 버튼이 존재한다.</t>
+      <t xml:space="preserve"> 버튼이 존재한다. </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1) 선택 후 '교체, 창고로 이동, 돌아가기(아무 액션x)' UI가 생성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>창고로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어의 마이룸에서 사라진다. 창고에는 저장되어 있다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3 플레이어가 추가 버튼을 누르는 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 플레이어의 창고가 열린다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 창고의 물품을 선택 시 마이룸에 가구가 추가된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 이미 배치되어 있는 가구를 선택하는 경우 자동으로 교체된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4 플레이어가 창고 버튼을 누르는 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽지, 바닥지, 창문, 카페트, 옷장, 침대, 꽃병, 전등, 식탁, 장식(음식=식탁 위)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 해당 목록에서 원하는 품목을 선택 시, 해당 가구만이 들어 있는 세부창고로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 각 아이템 품목을 한 번 더 누르면 '버리기, 돌아가기' 버튼이 생성된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버리기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템이 플레이어의 창고에서 영구 삭제 된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌아가기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부창고 화면으로 돌아간다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 처음 제공되는 가구는 창문, 카페트, 벽지, 바닥지이며, 상점에서 구매 후 추가 가능한 가구는 옷장, 침대, 꽃병, 전등, 식탁, 작식(식탁 위)이 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 창고 화면이 실행되고, 세부 가구 목록이 노출된다. 목록은 다음과 같다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 플레이어가 가지고 있는 가구 아이콘이 4x4 개수 비율로 노출된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4.0 플레이어가 창고의 품목 선택 후 이동한 세부 창고(ex. 창고 -&gt; 벽지)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 가구가 없는 경우 비어있는 형태로 노출된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 모든 메인화면에는 '돌아가기' 요소가 오른쪽 하단에 존재한다. 특별한 언급이 없는 경우, 이 버튼은 모든 내용을 저장 후 즉시 마이룸 화면으로 돌아간다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4) 화면 하단에 돌아가기 버튼은 바로 이전의 창고 화면 목록으로 돌아간다.</t>
+    <t>1) 선택 후 '교체, 보관, 돌아가기(아무 액션x)' UI가 생성된다. 생성위치는 직사각형 개체의 오른쪽 상단 꼭짓점이다. 벽지나 바닥재는 플레이어가 터치 한 위치에 UI가 생성된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2) 선택 판정은 플레이어가 해당 위치를 1.5초 이상 누르고 있을 때 TRUE로 판정한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 미니게임 메인화면 (= 미니게임 목록)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 설정1 메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 각 가구는 본래의 위치가 고정되어 있으며, 플레이어는 추가, 교체, 보관만이 가능하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 모든 메인화면에는 '돌아가기' 요소가 존재한다. 각 화면별 요소 위치와 행동은 해당 목차에 작성되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무 액션도 하지 않은 채 생성된 UI가 소멸된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 해당 가구 창고가 열림.-&gt;목차 2.3.0으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 창고 화면이 실행되고, 세부 가구 목록(스크롤 방식)이 노출된다. 목록은 다음과 같다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 화면의 오른쪽 상단에는 바로 직전 화면(꾸미기 메인화면)으로 돌아가는 '돌아가기' 요소가 위치한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1 배치 요소 추가 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 테마와 종류가 이미 배치된 경우의 가구를 배치하는 경우 결론적으로 아무런 변화도 일어나지 않는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0 메인화면 1번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 배치버튼을 누른 뒤 꾸미기 메인화면 1번으로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하던 게임을 계속 진행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3) 단, 플레이어의 게임 시작 버튼의 최초 PUSH인 경우 목차</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '3. 튜토리얼'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 이동한다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0 전제조건</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 튜토리얼 요소는 최초 1번 노출된 이후 소멸된다는 점에 유의한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 플레이어가 최초로 0번 메인화면의 게임시작 버튼을 누른 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾸미기, 게임시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"게임을 처음 시작하시네요! 잘 오셨어요. 분명 재밌을 거에요. 용사님의 처음을 함께할 동료를 선택해주세요!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출문구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지바 / 프럼 / 이브 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지바를 선택하셨군요! 그럼 이제 우리의 홈타운에 가요! </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 게임 시작 캐릭터를 선택하는 화면이 노출된다. 게임 내 플레이어는 용사로 지칭한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 플레이어가 캐릭터를 선택한 이후 다음 문구와 해당 캐릭터를 화면에 3초 노출시킨 후 마이룸으로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 마이룸 튜토리얼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 위에는 용사님이 가지고 있는 코인이 표시되어 있어요. 이 코인으로 상점에서 가구를 살 수 있답니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용사님의 창고에 카페트와 창문 하나를 넣어놨으니 꾸미기를 눌러 확인해보세요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기가 용사님과 동료들의 집이에요! 화면 아래의 상점에서 가구를 사고, 꾸미기를 터치해 가구를 꾸밀 수 있어요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플럼월드에 오신 걸 환영합니다. 플럼월드는 판다행성의 침략으로 친구들이 모두 잡혀갔어요. 저는 용사님이 플럼월드를 구해주실 수 있다는 확신이 있어요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 건투를 빌게요! 저는 용사님이 우리 ''월드의 친구들을 모두 구할 수 있을 거라 믿거든요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 이야기가 끝나면 마이룸 메인화면(1.1) 으로 이동하여 게임이 진행된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 캐릭터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 진행자 말풍선에 다음 문구가 차례로 노출된다. // 폰트 종류, 크기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1 마이룸 캐릭터 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 캐릭터는 지정 위치에 고정되어 있으며, 추가 획득 캐릭터 역시 차례로 지정 위치에 배치된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 마이룸에서 꾸미기를 PUSH한 경우 모든 캐릭터가 일시 소멸된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 캐릭터는 마이룸에서 바닥재가 위치한 공간의 중앙부터 시계방향으로 채워나가는 방식이며, 캐릭터는 플레이어가 TOUCH할 수 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 플레이어의 캐릭터로 게임을 진행하는 미니게임은 점프벽, 동굴에서 피하기, 스키게임이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.2 미니게임 플레이 캐릭터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 플레이어의 설정이 없는 경우 미니게임을 플레이하는 캐릭터는 플레이어가 가장 최근에 획득한 캐릭터로 진행된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.3 캐릭터 도감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코인은 미니게임에서 획득할 수 있어요. 코인으로 친구들도 구출할 수 있어요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플럼 월드의 친구들은 용사님의 도감에서 확인할 수 있답니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) 메인 화면 하단에는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'상점, 미니게임, 꾸미기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(목차2),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 도감'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>버튼이 위치한다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 도감은 마이룸 메인 화면의 '도감 버튼'을 통해 들어갈 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 도감에서 플레이어의 대표 캐릭터를 설정할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 플레이어의 대표 캐릭터로 설정된 캐릭터는 도감에서 '대표' 책갈피가 꽂히며, 미니게임 플레이를 진행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2) 캐릭터는 플레이어의 획득 순서대로 업그레이드 된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 미니게임, 캐릭터 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 미니게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.0 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +783,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -699,9 +918,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -712,9 +929,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -723,22 +938,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -750,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -787,7 +987,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -820,29 +1020,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1171,27 +1380,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
-  <dimension ref="B3:B28"/>
+  <dimension ref="B3:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:2" ht="23">
       <c r="B3" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:2">
@@ -1199,88 +1408,98 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="8" spans="2:2" ht="23">
-      <c r="B8" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>35</v>
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="2:2" ht="23">
+      <c r="B9" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>38</v>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>19</v>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>21</v>
+      <c r="B24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1"/>
+    </row>
+    <row r="34" spans="2:2" ht="23">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1290,183 +1509,225 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
-  <dimension ref="B3:G36"/>
+  <dimension ref="B3:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A5" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="23">
       <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="2:12" ht="19" thickBot="1">
+      <c r="B18" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="2:12" ht="19" thickTop="1">
+      <c r="B19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="28" spans="2:12">
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="C29" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="C30" s="26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="19" thickBot="1">
-      <c r="B17" s="26" t="s">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="C31" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="27" t="s">
+    </row>
+    <row r="32" spans="2:12">
+      <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="2:7" ht="19" thickTop="1">
-      <c r="B18" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="16" t="s">
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="1"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="19" thickBot="1">
-      <c r="C32" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="3:7" ht="19" thickTop="1">
-      <c r="C33" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="C35" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
+      <c r="C37" t="s">
         <v>74</v>
       </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1476,12 +1737,146 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B90982-F20D-AF41-81F0-4A32B272D676}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="23">
+      <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="32"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1489,22 +1884,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BE606-6101-AA4F-9339-BF222BD0FB90}">
-  <dimension ref="B3:G25"/>
+  <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -1589,25 +1984,25 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="18"/>
@@ -1616,10 +2011,10 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -1628,18 +2023,15 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="19"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1649,14 +2041,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624540-7EAE-9D40-A1F4-261D478CFCF8}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="23">
+      <c r="B3" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1673,4 +2081,98 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
+  <dimension ref="B3:B17"/>
+  <sheetViews>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:2" ht="23">
+      <c r="B3" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E80945-24DB-C141-B44D-936E4EBEACB4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7249A468-5A2D-4140-8898-D1BD396678E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6EEE08-B632-984B-92B2-7C7957D4F8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
@@ -19,9 +19,8 @@
     <sheet name="3. 튜토리얼" sheetId="7" r:id="rId4"/>
     <sheet name="4. 미니게임 시작 화면" sheetId="1" r:id="rId5"/>
     <sheet name="5. 미니게임 스토리" sheetId="5" r:id="rId6"/>
-    <sheet name="6. 미니게임 종료 화면" sheetId="3" r:id="rId7"/>
-    <sheet name="7. 캐릭터" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId9"/>
+    <sheet name="7. 캐릭터" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,35 +121,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">3) 메인화면 하단에는 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'마이룸(돌아가기), 상점, 설정'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 버튼이 위치한다. </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 설정 버튼은 각 미니게임별 기획서에 지시한 위치에 존재한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -192,14 +162,6 @@
   </si>
   <si>
     <t>1.0 '게임 시작' 후 메인 화면(마이룸)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 미니게임 첫 시작 화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0 공통요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -577,18 +539,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7. 캐릭터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 진행자 말풍선에 다음 문구가 차례로 노출된다. // 폰트 종류, 크기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7.1 마이룸 캐릭터 위치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 캐릭터는 지정 위치에 고정되어 있으며, 추가 획득 캐릭터 역시 차례로 지정 위치에 배치된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -605,23 +559,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7.2 미니게임 플레이 캐릭터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>e9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1) 플레이어의 설정이 없는 경우 미니게임을 플레이하는 캐릭터는 플레이어가 가장 최근에 획득한 캐릭터로 진행된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.3 캐릭터 도감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코인은 미니게임에서 획득할 수 있어요. 코인으로 친구들도 구출할 수 있어요.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -697,15 +639,142 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5. 미니게임, 캐릭터 스토리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5.1 미니게임</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">5.1.0 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 미니게임 버튼 배치 중간 , 크기 키우기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3) 메인화면 하단에는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'마이룸(돌아가기)'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 버튼이 위치한다. </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">코인은 미니게임에서 획득할 수 있어요. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>코인으로 포로로 잡힌 친구들도 구출할 수 있어요.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음을 ON/OFF 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음을 ON/OFF 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 미니게임 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 지바 (컨셉 : 여우)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 캐릭터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 마이룸 캐릭터 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 미니게임 플레이 캐릭터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3 캐릭터 도감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4 캐릭터별 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0 시작화면 공통요소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 미니게임 세부 메인 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 종료화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 미니게임 판정에 따라 게임이 끝나면 게임 오버 문구와 함께 게임이 종료된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 방 확장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 얻는 순서대로 배치 방식, 위치: 침대, 의자 : 15마리 7/8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층에 테라스, 가구, 카페 의자 책상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[상점 꾸미기 도감] //세로</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +782,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -762,6 +831,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -950,7 +1028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,12 +1104,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1041,17 +1113,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,12 +1451,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA30E3-684C-2C4A-A121-E665FA8BFDFA}">
-  <dimension ref="A1"/>
+  <dimension ref="C8:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="3:7" ht="23">
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="23">
+      <c r="C10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="G14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1382,20 +1522,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:2" ht="23">
       <c r="B3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -1410,7 +1550,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="23">
@@ -1418,27 +1558,27 @@
     </row>
     <row r="9" spans="2:2" ht="23">
       <c r="B9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -1453,12 +1593,12 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -1473,7 +1613,7 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -1483,11 +1623,23 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="34" spans="2:2" ht="23">
       <c r="B34" s="11"/>
@@ -1509,107 +1661,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
-  <dimension ref="B3:N38"/>
+  <dimension ref="B3:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:11">
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="23">
       <c r="B5" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-    </row>
-    <row r="8" spans="2:14">
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="2:12" ht="19" thickBot="1">
+      <c r="B18" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" t="s">
+      <c r="C18" s="26" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="2:12" ht="19" thickBot="1">
-      <c r="B18" s="27" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="24" t="s">
-        <v>42</v>
-      </c>
       <c r="I18" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -1617,10 +1766,10 @@
     </row>
     <row r="19" spans="2:12" ht="19" thickTop="1">
       <c r="B19" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1632,27 +1781,27 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -1661,20 +1810,20 @@
     </row>
     <row r="27" spans="2:12">
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="C28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="C29" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -1683,51 +1832,50 @@
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="C30" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="31" spans="2:12">
       <c r="C31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="C32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
       <c r="C34" s="1"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="3:7">
+    </row>
+    <row r="35" spans="3:3">
       <c r="C35" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="3:7">
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7">
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7">
+    <row r="38" spans="3:3">
       <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1737,144 +1885,147 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B90982-F20D-AF41-81F0-4A32B272D676}">
-  <dimension ref="B2:C24"/>
+  <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="31" t="s">
-        <v>82</v>
+      <c r="B9" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="C9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="31" t="s">
-        <v>84</v>
-      </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="31" t="s">
-        <v>86</v>
+      <c r="B13" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="32"/>
+        <v>99</v>
+      </c>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="31" t="s">
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
         <v>97</v>
       </c>
-      <c r="C21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="31" t="s">
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="33" t="s">
-        <v>101</v>
-      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1884,22 +2035,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BE606-6101-AA4F-9339-BF222BD0FB90}">
-  <dimension ref="B3:G23"/>
+  <dimension ref="B3:G28"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
-        <v>31</v>
+    <row r="3" spans="2:3" ht="23">
+      <c r="B3" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -1984,25 +2135,25 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="18"/>
@@ -2011,10 +2162,10 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -2023,15 +2174,49 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="19"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="34" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2043,25 +2228,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624540-7EAE-9D40-A1F4-261D478CFCF8}">
   <dimension ref="B3:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:2" ht="23">
       <c r="B3" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2071,100 +2256,106 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1FC61F-C12D-BD44-B1EE-B942615260F2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
+  <dimension ref="B3:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:8" ht="23">
+      <c r="B3" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="H8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
-  <dimension ref="B3:B17"/>
-  <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="3" spans="2:2" ht="23">
-      <c r="B3" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E80945-24DB-C141-B44D-936E4EBEACB4}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6EEE08-B632-984B-92B2-7C7957D4F8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BDD9E4-8FED-5845-98E6-251B6C2BA62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="165">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,35 +170,6 @@
   </si>
   <si>
     <t>2.꾸미기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">아래 내용은 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>게임시작&gt;마이룸&gt;꾸미기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 이하의 액션들임에 유의한다.</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -551,10 +522,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2) 캐릭터는 마이룸에서 바닥재가 위치한 공간의 중앙부터 시계방향으로 채워나가는 방식이며, 캐릭터는 플레이어가 TOUCH할 수 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2) 플레이어의 캐릭터로 게임을 진행하는 미니게임은 점프벽, 동굴에서 피하기, 스키게임이다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -639,14 +606,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5.1 미니게임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.0 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>// 미니게임 버튼 배치 중간 , 크기 키우기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -758,10 +717,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>// 방 확장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>// 얻는 순서대로 배치 방식, 위치: 침대, 의자 : 15마리 7/8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -770,11 +725,143 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>미니게임 버튼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[상점 꾸미기 도감] //세로</t>
+    <t>2.0 꾸미기 버튼 PUSH 후 메인화면 1번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 꾸미기 &gt; 플레이어가 본래 가지고 있는 가구를 선택하는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 플레이어가 꾸미기&gt; 창고 버튼을 누르는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 방 확장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 상점에 '방확장' 요소를 구입하면 2층이 오픈되며 마이룸 메인화면 왼쪽 상단에 2층으로 이동이 가능한 UI가 배치된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽지, 바닥재, 침대, 카페트, 옷장, 벽걸이 선반, 장식(벽걸이 선반 장식), 전등, 꽃병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 상점 역시 1층 가구와 2층 가구로 나뉘어져 있으며, 방확장 이전에는 1층 가구 카테고리만 OPEN 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 얻는 순서대로 배치 방식이며, 지정 위치는 아래와 같다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1층 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페트 위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 플레이어가 2층 구입 전 캐릭터 7마리를 달성하는 경우 '8마리부터는 방 확장 후 구입이 가능해요!' 의 문구가 언급된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5 2층 정원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 미니게임, 상점, 재화, 설정 버튼의 배치는 1층과 동일하며, 화면 왼쪽 상단에 1층으로 이동할 수 있는 Ui가 배치되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책상&amp;의자 SET, 음식, 잔디, 하늘, 나무, 정원 장식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1층 창고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층 창고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 1층과 2층에 위치하는 창고 세부 품목은 아래 표를 참고한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 캐릭터 요소는 1층이 7마리, 2층에 8마리 배치가 가능하며, 2층을 구입하기 전에 캐릭터를 8마리 이상 구입할 수 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.0 점프벽 게임 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구들 없는 이 땅보단 무엇이 있는지 모르는 미지의 하늘이 좋을거야. 장애물을 피해 위를 향해 뛰자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1 판다 먹이 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다 놈들.. 또 남의 땅 와서 식량을 축내고 있구나… 얼마나 먹는지 보자..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.2 동굴 게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 미니게임별 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.3 참참참</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.4 스키게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구들이 판다동굴에서 노역을 하고 있다는 소문을 들었어. 어서 친구들을 구출하자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스키는 삭막한 내 삶의 유일한 취미야. 스키로 스트레스를 날려야겠어!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추억의 게임 참참참.. 판다 놈들과의 대결에서 이겨서 친구들의 복수를 하겠어.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대결에서 이겨 판다놈들의 머리를 후려치자! // O -&gt; 뿅망치 액션 추가?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -861,7 +948,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1022,6 +1109,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1119,23 +1230,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1451,65 +1562,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA30E3-684C-2C4A-A121-E665FA8BFDFA}">
-  <dimension ref="C8:G14"/>
+  <dimension ref="C8:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="8" spans="3:7" ht="23">
+    <row r="8" spans="3:13" ht="23">
       <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="3:7">
+      <c r="M8" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="23">
+        <v>69</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="23">
       <c r="C10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
+        <v>33</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
+        <v>34</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
       <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
+    <row r="14" spans="3:13">
       <c r="G14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="G15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="G16" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1522,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A4" zoomScale="155" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1550,7 +1683,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="23">
@@ -1568,17 +1701,17 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -1593,12 +1726,12 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -1613,7 +1746,7 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:2">
@@ -1623,23 +1756,19 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="B27" s="1"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="B28" s="1"/>
     </row>
     <row r="34" spans="2:2" ht="23">
       <c r="B34" s="11"/>
@@ -1661,19 +1790,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
-  <dimension ref="B3:L39"/>
+  <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A25" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B49" activeCellId="1" sqref="B39 B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:11">
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="5" spans="2:11" ht="23">
       <c r="B5" s="11" t="s">
         <v>31</v>
@@ -1681,18 +1805,18 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1700,42 +1824,42 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1745,20 +1869,20 @@
     </row>
     <row r="18" spans="2:12" ht="19" thickBot="1">
       <c r="B18" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -1766,10 +1890,10 @@
     </row>
     <row r="19" spans="2:12" ht="19" thickTop="1">
       <c r="B19" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -1781,27 +1905,27 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -1810,20 +1934,20 @@
     </row>
     <row r="27" spans="2:12">
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="C28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="C29" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -1833,48 +1957,110 @@
     </row>
     <row r="30" spans="2:12">
       <c r="C30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="C32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="C33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="2:9">
       <c r="C35" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="C36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
-      <c r="C36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="2:9">
       <c r="C37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="1" t="s">
-        <v>132</v>
+    <row r="39" spans="2:9">
+      <c r="B39" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="C46" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="C47" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1888,144 +2074,144 @@
   <dimension ref="B2:C26"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B15" activeCellId="3" sqref="B3 B4 B7 B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="29"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="33"/>
+      <c r="B26" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2037,20 +2223,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BE606-6101-AA4F-9339-BF222BD0FB90}">
   <dimension ref="B3:G28"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -2177,7 +2363,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="19"/>
@@ -2186,10 +2372,10 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -2197,11 +2383,11 @@
       <c r="G24" s="21"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>120</v>
+      <c r="B25" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -2209,13 +2395,13 @@
       <c r="G25" s="17"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="35" t="s">
-        <v>130</v>
+      <c r="B27" s="31" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="34" t="s">
-        <v>131</v>
+      <c r="B28" s="12" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2226,27 +2412,93 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624540-7EAE-9D40-A1F4-261D478CFCF8}">
-  <dimension ref="B3:B5"/>
+  <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="23">
+    <row r="3" spans="2:4" ht="23">
       <c r="B3" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>113</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2257,96 +2509,110 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
-  <dimension ref="B3:H20"/>
+  <dimension ref="B3:H29"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A9" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:8" ht="23">
       <c r="B3" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="C20" t="s">
-        <v>122</v>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="C29" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BDD9E4-8FED-5845-98E6-251B6C2BA62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECB51C3-9148-AC43-AC8D-E80F0E998E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -805,10 +805,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>친구들 없는 이 땅보단 무엇이 있는지 모르는 미지의 하늘이 좋을거야. 장애물을 피해 위를 향해 뛰자.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5.1.1 판다 먹이 횟수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -853,15 +849,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스키는 삭막한 내 삶의 유일한 취미야. 스키로 스트레스를 날려야겠어!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추억의 게임 참참참.. 판다 놈들과의 대결에서 이겨서 친구들의 복수를 하겠어.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대결에서 이겨 판다놈들의 머리를 후려치자! // O -&gt; 뿅망치 액션 추가?</t>
+    <t>// 일정 시간 몸짓? 호감도 시스템 : 캐릭터 플레이 많으면 호감도 up 일정 수준 능력 재화 획득? 저장 , 긍정적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다 성 안에 친구들이 갇혀있는 것 같아. 친구들아 내가 곧 구해줄게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추억의 게임 참참참.. 대결에서 이겨 판다의 머리를 때리자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈 덮인 산을 내려가며 친구들을 구출하자.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1564,7 +1564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA30E3-684C-2C4A-A121-E665FA8BFDFA}">
   <dimension ref="C8:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
@@ -1655,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="155" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1792,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
   <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B49" activeCellId="1" sqref="B39 B49"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2074,7 +2074,7 @@
   <dimension ref="B2:C26"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="B15" activeCellId="3" sqref="B3 B4 B7 B15"/>
+      <selection activeCell="E26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2415,7 +2415,7 @@
   <dimension ref="B3:D18"/>
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -2441,64 +2441,63 @@
         <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
         <v>152</v>
-      </c>
-      <c r="C9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2511,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="140" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2535,6 +2534,9 @@
     <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>137</v>
+      </c>
+      <c r="G6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:8">

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECB51C3-9148-AC43-AC8D-E80F0E998E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D46170-1A08-8740-A4C8-1BE13BA8B4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="166">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -862,6 +862,10 @@
   </si>
   <si>
     <t>눈 덮인 산을 내려가며 친구들을 구출하자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 점프벽 게임 배경, 침엽수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1792,7 +1796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
   <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -2221,57 +2225,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BE606-6101-AA4F-9339-BF222BD0FB90}">
-  <dimension ref="B3:G28"/>
+  <dimension ref="B3:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:3" ht="23">
+    <row r="3" spans="2:11" ht="23">
       <c r="B3" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="K4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:11">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:11">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:11">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:11">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:11">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:3" ht="19" thickBot="1">
+    <row r="11" spans="2:11" ht="19" thickBot="1">
       <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:11">
       <c r="B12" s="4">
         <v>3</v>
       </c>
@@ -2287,7 +2294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:11">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -2295,7 +2302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:11">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -2303,7 +2310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:11">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2311,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:11">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2414,8 +2421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624540-7EAE-9D40-A1F4-261D478CFCF8}">
   <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView zoomScale="173" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D46170-1A08-8740-A4C8-1BE13BA8B4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F658D-779D-9346-A0CF-FD32BC710CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="10800" yWindow="760" windowWidth="19440" windowHeight="17400" firstSheet="1" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="203">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -677,10 +677,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1) 지바 (컨셉 : 여우)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>6. 캐릭터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -697,10 +693,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.4 캐릭터별 스토리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3.0 시작화면 공통요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -761,10 +753,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>카페트 위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3) 플레이어가 2층 구입 전 캐릭터 7마리를 달성하는 경우 '8마리부터는 방 확장 후 구입이 가능해요!' 의 문구가 언급된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -866,6 +854,166 @@
   </si>
   <si>
     <t>// 점프벽 게임 배경, 침엽수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페트 위 1,2,3 -&gt; 꽃병 옆4 -&gt; 침대 위 5,6 -&gt; 선반 위 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의자 1,2 -&gt; 나무 앞 3 -&gt; 장식 옆 4 -&gt; 식탁 앞 5,6,7,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.0 캐릭터별 세부사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지바</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프럼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샴고양이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코알라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캥거루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너구리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북극곰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코끼리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작캐릭터1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작캐릭터3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작캐릭터2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무능력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호기심이 많다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴탈출게임 환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프게임 점수 환산 재화 + 20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>씩씩하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강하다. 싸움짱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게으르다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시끄럽다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내기를 좋아한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 특징</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">친구들과 떠들다가 주위를 살피지 못해 너구리판다한테 납치됐다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 능력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코리안숏헤어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1251,6 +1399,51 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1641,12 +1834,12 @@
     </row>
     <row r="15" spans="3:13">
       <c r="G15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="3:13">
       <c r="G16" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1796,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
   <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
@@ -1809,7 +2002,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -1853,7 +2046,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -1909,7 +2102,7 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -2002,41 +2195,41 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="C46" s="33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2046,10 +2239,10 @@
     </row>
     <row r="47" spans="2:9">
       <c r="C47" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -2059,12 +2252,12 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2235,15 +2428,15 @@
   <sheetData>
     <row r="3" spans="2:11" ht="23">
       <c r="B3" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -2403,12 +2596,12 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2421,7 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624540-7EAE-9D40-A1F4-261D478CFCF8}">
   <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="149" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2434,60 +2627,60 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D5" s="34"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="35" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2496,15 +2689,15 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2515,22 +2708,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
-  <dimension ref="B3:H29"/>
+  <dimension ref="B3:I53"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:8" ht="23">
       <c r="B3" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -2540,88 +2733,437 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" t="s">
-        <v>138</v>
-      </c>
+      <c r="B7" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
+      <c r="B8" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="1"/>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="1"/>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="21" spans="2:9">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="C22" s="16"/>
+      <c r="D22" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" s="47"/>
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="36"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="48"/>
+      <c r="I25" s="39"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="47"/>
+      <c r="I27" s="37"/>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="C29" t="s">
-        <v>118</v>
+      <c r="C28" s="16"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="C29" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" s="47"/>
+      <c r="I30" s="37"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="C31" s="16"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="39"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="C32" s="44">
+        <v>4</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="16"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="39"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="9">
+        <v>5</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="45"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="46"/>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="9">
+        <v>6</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="G39" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="9">
+        <v>7</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="39"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="9">
+        <v>8</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="9"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="39"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47" s="9">
+        <v>9</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="9">
+        <v>10</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="9">
+        <v>11</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F658D-779D-9346-A0CF-FD32BC710CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2952AEDC-CE92-C24A-BC26-76F6E742AF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="760" windowWidth="19440" windowHeight="17400" firstSheet="1" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="251">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,10 +162,6 @@
   </si>
   <si>
     <t>1.0 '게임 시작' 후 메인 화면(마이룸)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1 설정버튼 (설정2)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -606,10 +602,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>// 미니게임 버튼 배치 중간 , 크기 키우기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">3) 메인화면 하단에는 </t>
     </r>
@@ -693,18 +685,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.0 시작화면 공통요소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 미니게임 세부 메인 화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2 종료화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 미니게임 판정에 따라 게임이 끝나면 게임 오버 문구와 함께 게임이 종료된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -853,10 +833,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>// 점프벽 게임 배경, 침엽수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>카페트 위 1,2,3 -&gt; 꽃병 옆4 -&gt; 침대 위 5,6 -&gt; 선반 위 7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -969,10 +945,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동굴탈출게임 환산 재화 + 10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>점프게임 점수 환산 재화 + 20%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1014,6 +986,226 @@
   </si>
   <si>
     <t>코리안숏헤어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고슴도치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.0 미니게임 난이도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 미니게임이 해금과 동시에 난이도(NOMAL/HARD)를 선택할 수 있는 버튼 UI가 생성된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 버튼 배치는 메인화면 예시를 참고하며, 버튼을 PUSH 하는 경우 해당 난이도의 미니게임으로 이동하여 게임을 진행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 게임오버 문구 노출이 완료되면, 점수판 ui가 노출된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 요소별 노출시간은 다음과 같다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 점수판 첫 줄에는 해당게임의 최고기록, 아래에는 재화 정산과 점수가 차례대로 노출된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 점수판 아래 UI 버튼 (한 번 더, 목록화면으로) 두가지가 존재한다. 해당 버튼을 누른 즉시 점수판이 소멸되며 다음과 같은 행동을 취한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.0 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 번 더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화와 점수를 저장 후, 해당 미니게임(같은 난이도)을 한 번 더 진행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화와 점수를 저장 후, 미니게임 목록화면으로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 미니게임 세부 메인 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0 시작화면 공통요소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 설정버튼 (설정2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 종료화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.0 점수판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 미니게임 최고기록 저장은 난이도 별로 저장된다. 자세한 내용은 목차 4를 참고.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책오리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캥붕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참참참 게임 환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스키 게임 점수 환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰먹이 게임 점수 환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴탈출게임점수  환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴탈출게임 점수 환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프벽 게임 점수 환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 가지고 있는 캐릭터의 능력 발동은 다음 전제가 충족되었을 때 이행된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전제1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치가 발동하는 게임이 해금 상태여야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전제2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터가 능력치가 발동하는 게임을 해당 캐릭터로 진행하여야 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참참참, 곰먹이 게임 점수 환산 재화 각 +10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴탈출, 스키 게임 점수 환산 재화 각 +10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.1 게임 캐릭터 능력치 발동 사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람을 못 듣고 계속 자다가 E성향이 강한 판다에게 납치 됐다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 판다인 줄도 모르고, 어마어마한 금액을 두고 내기하다 져서 찍 소리도 못하고 대신 팔려갔다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료들을 지키기위해 앞장서 플럼 월드를 지키다가 동료들의 배신으로 판다 행성에 갈 수 밖에 없는 상황이었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다 행성에서 캥붕이가 싸움을 잘하는 걸 눈치채고 천문학적인 금액으로 스카웃 했다. 당시 조건 중 캥붕 가족의 미래 안정이 있었으나 판다 행성은 지키지 않았다. 캥붕 가족의 행방은 묘연하다..</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1291,7 +1483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1400,15 +1592,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,26 +1607,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1463,7 +1640,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1751,7 +1928,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1772,10 +1949,10 @@
         <v>26</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="3:13">
@@ -1783,10 +1960,10 @@
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="23">
@@ -1794,10 +1971,10 @@
         <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="3:13">
@@ -1805,41 +1982,41 @@
         <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="3:13">
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="3:13">
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="3:13">
       <c r="G14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="3:13">
       <c r="G15" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="3:13">
       <c r="G16" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
-  <dimension ref="B3:B47"/>
+  <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A9" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1880,7 +2057,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="23">
@@ -1898,17 +2075,17 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -1921,57 +2098,64 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="34" spans="2:2" ht="23">
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1"/>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1"/>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1"/>
@@ -1989,31 +2173,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
   <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A25" zoomScale="114" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="2:11" ht="23">
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -2021,42 +2205,42 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -2066,20 +2250,20 @@
     </row>
     <row r="18" spans="2:12" ht="19" thickBot="1">
       <c r="B18" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -2087,10 +2271,10 @@
     </row>
     <row r="19" spans="2:12" ht="19" thickTop="1">
       <c r="B19" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -2102,27 +2286,27 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -2131,20 +2315,20 @@
     </row>
     <row r="27" spans="2:12">
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="C29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>45</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -2154,22 +2338,22 @@
     </row>
     <row r="30" spans="2:12">
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -2177,17 +2361,17 @@
     </row>
     <row r="35" spans="2:9">
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="C36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="C37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -2195,41 +2379,41 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="C46" s="33" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2239,10 +2423,10 @@
     </row>
     <row r="47" spans="2:9">
       <c r="C47" s="32" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -2252,12 +2436,12 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2270,141 +2454,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B90982-F20D-AF41-81F0-4A32B272D676}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:F26"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="29"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -2418,60 +2602,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BE606-6101-AA4F-9339-BF222BD0FB90}">
-  <dimension ref="B3:K28"/>
+  <dimension ref="B3:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="111" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:11" ht="23">
+    <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:3">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:3">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:11" ht="19" thickBot="1">
+    <row r="11" spans="2:3" ht="19" thickBot="1">
       <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
@@ -2479,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:3">
       <c r="B12" s="4">
         <v>3</v>
       </c>
@@ -2487,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:3">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -2495,7 +2676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:3">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -2503,7 +2684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2511,7 +2692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2521,7 +2702,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -2563,7 +2744,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="19"/>
@@ -2572,10 +2753,10 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>113</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>115</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -2584,10 +2765,10 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -2596,13 +2777,91 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="31" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="12" t="s">
-        <v>125</v>
-      </c>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="19" thickBot="1">
+      <c r="B32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="C36" s="44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="C37" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="C38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="C40" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2614,73 +2873,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624540-7EAE-9D40-A1F4-261D478CFCF8}">
   <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView zoomScale="149" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:4" ht="23">
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D5" s="34"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="28" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
         <v>155</v>
-      </c>
-      <c r="C15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2689,15 +2948,15 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
         <v>156</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2708,385 +2967,413 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
-  <dimension ref="B3:I53"/>
+  <dimension ref="B3:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="81" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:8" ht="23">
       <c r="B3" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="22" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="22" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="E21">
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="C22" s="16"/>
-      <c r="D22" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="43" t="s">
+      <c r="D22" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="C23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="C24" s="9"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="36"/>
-      <c r="C23" s="37" t="s">
+      <c r="F26" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="42"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="C27" s="9"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="36"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="H25" s="48"/>
-      <c r="I25" s="39"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="C26" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H26" s="49"/>
-      <c r="I26" s="41"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="37"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="1"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="39"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" s="41"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="2:9">
       <c r="C29" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" s="47"/>
-      <c r="I30" s="37"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="C31" s="16"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="39"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H31" s="41"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="C32" s="44">
+      <c r="C32" s="9">
         <v>4</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="31" t="s">
+        <v>199</v>
+      </c>
       <c r="E32" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F32" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="3:9">
-      <c r="D33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="3:9">
-      <c r="C34" s="16"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="39"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="H34" s="41"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="3:9">
       <c r="C35" s="9">
         <v>5</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="31" t="s">
+        <v>231</v>
+      </c>
       <c r="E35" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F35" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="3:9">
-      <c r="D36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="3:9">
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="46"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="36"/>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="9">
         <v>6</v>
       </c>
-      <c r="D38" s="9"/>
+      <c r="D38" s="31" t="s">
+        <v>226</v>
+      </c>
       <c r="E38" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="3:9">
+      <c r="C39" s="9"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="12" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="3:9">
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="3:9">
       <c r="C41" s="9">
         <v>7</v>
       </c>
+      <c r="D41" s="31" t="s">
+        <v>227</v>
+      </c>
       <c r="E41" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="3:9">
       <c r="C42" s="9"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="43" spans="3:9">
-      <c r="C43" s="39"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="16"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
@@ -3095,22 +3382,31 @@
       <c r="C44" s="9">
         <v>8</v>
       </c>
+      <c r="D44" s="31" t="s">
+        <v>200</v>
+      </c>
       <c r="E44" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>187</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="3:9">
       <c r="C45" s="9"/>
+      <c r="D45" s="31"/>
       <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="46" spans="3:9">
-      <c r="C46" s="39"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="16"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -3119,18 +3415,30 @@
       <c r="C47" s="9">
         <v>9</v>
       </c>
+      <c r="D47" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="E47" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48" s="9"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="3:9">
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
@@ -3139,18 +3447,30 @@
       <c r="C50" s="9">
         <v>10</v>
       </c>
+      <c r="D50" s="31" t="s">
+        <v>198</v>
+      </c>
       <c r="E50" s="9" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="9"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="12" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="3:9">
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
@@ -3159,11 +3479,177 @@
       <c r="C53" s="9">
         <v>11</v>
       </c>
+      <c r="D53" s="31" t="s">
+        <v>228</v>
+      </c>
       <c r="E53" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9">
+      <c r="C54" s="9"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" s="9">
+        <v>12</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9">
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="9">
+        <v>13</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>187</v>
+      <c r="F59" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9">
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="9">
+        <v>14</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63" s="9"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9">
+      <c r="C64" s="36"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65" s="9">
+        <v>15</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7">
+      <c r="C68" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7">
+      <c r="C69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7">
+      <c r="C70" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7">
+      <c r="C71" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2952AEDC-CE92-C24A-BC26-76F6E742AF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBE9C66-CDC9-2A4C-B2EB-A38457EFF08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="4. 미니게임 시작 화면" sheetId="1" r:id="rId5"/>
     <sheet name="5. 미니게임 스토리" sheetId="5" r:id="rId6"/>
     <sheet name="7. 캐릭터" sheetId="9" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
+    <sheet name="ㅇ" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="254">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,10 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve">2) 게임 시작 버튼을 누르면 즉시 '마이룸'으로 이동한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 최초 동작 시에는 미니게임 2개가 열려 있고, 3개는 자물쇠로 닫힌 형식이며 일정 점수 이상 획득 후 오픈된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1025,14 +1021,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1) 미니게임이 해금과 동시에 난이도(NOMAL/HARD)를 선택할 수 있는 버튼 UI가 생성된다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 버튼 배치는 메인화면 예시를 참고하며, 버튼을 PUSH 하는 경우 해당 난이도의 미니게임으로 이동하여 게임을 진행한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2) 게임오버 문구 노출이 완료되면, 점수판 ui가 노출된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1101,10 +1089,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3) 미니게임 최고기록 저장은 난이도 별로 저장된다. 자세한 내용은 목차 4를 참고.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>책오리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1157,10 +1141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>점프벽 게임 점수 환산 재화 + 10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1) 가지고 있는 캐릭터의 능력 발동은 다음 전제가 충족되었을 때 이행된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1206,6 +1186,38 @@
   </si>
   <si>
     <t>판다 행성에서 캥붕이가 싸움을 잘하는 걸 눈치채고 천문학적인 금액으로 스카웃 했다. 당시 조건 중 캥붕 가족의 미래 안정이 있었으나 판다 행성은 지키지 않았다. 캥붕 가족의 행방은 묘연하다..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴탈출, 스키 게임 점수 환산 재화 + 5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참참참, 곰먹이 게임 점수 환산 재화 + 5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 최초 동작 시에는 미니게임 3개(노말 2개, 하드1개) 가 열려 있고, 3개는 자물쇠로 닫힌 형식이며 일정 점수 이상 획득 후 오픈된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 미니게임 난이도는 노말과 하드, 두가지 난이도가 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 미니게임 첫 화면은 노말 난이도이며, 하단의 난이도 변경 UI를 PUSH하는 경우 난이도가 변경된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 최고기록의 저장은 난이도별로 따로 진행이 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 지향 프로그래밍 실력이 뛰어나다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1483,7 +1495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1613,10 +1625,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
@@ -1939,84 +1948,88 @@
   <dimension ref="C8:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="8" spans="3:13" ht="23">
       <c r="C8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="3:13">
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="23">
       <c r="C10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="3:13">
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="3:13">
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="3:13">
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="3:13">
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="3:13">
+      <c r="C15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="3:13">
       <c r="G16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2029,25 +2042,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="C17" zoomScale="142" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:2" ht="23">
       <c r="B3" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:2">
@@ -2057,7 +2070,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="23">
@@ -2065,100 +2078,100 @@
     </row>
     <row r="9" spans="2:2" ht="23">
       <c r="B9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1"/>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1"/>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1"/>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1"/>
@@ -2173,7 +2186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
   <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="114" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="93" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -2181,23 +2194,23 @@
   <sheetData>
     <row r="5" spans="2:11" ht="23">
       <c r="B5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -2205,42 +2218,42 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="B17" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -2250,20 +2263,20 @@
     </row>
     <row r="18" spans="2:12" ht="19" thickBot="1">
       <c r="B18" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -2271,10 +2284,10 @@
     </row>
     <row r="19" spans="2:12" ht="19" thickTop="1">
       <c r="B19" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -2286,27 +2299,27 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -2315,20 +2328,20 @@
     </row>
     <row r="27" spans="2:12">
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="C29" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -2338,22 +2351,22 @@
     </row>
     <row r="30" spans="2:12">
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:12">
       <c r="C31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:9">
@@ -2361,17 +2374,17 @@
     </row>
     <row r="35" spans="2:9">
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="C36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="2:9">
@@ -2379,41 +2392,41 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="C46" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2423,10 +2436,10 @@
     </row>
     <row r="47" spans="2:9">
       <c r="C47" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -2436,12 +2449,12 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2462,133 +2475,133 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="29"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -2604,20 +2617,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BE606-6101-AA4F-9339-BF222BD0FB90}">
   <dimension ref="B3:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="111" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A18" zoomScale="92" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -2702,25 +2715,25 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="18"/>
@@ -2729,10 +2742,10 @@
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -2741,10 +2754,10 @@
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="19"/>
@@ -2753,10 +2766,10 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -2765,10 +2778,10 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -2777,22 +2790,22 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="19" thickBot="1">
@@ -2805,33 +2818,33 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="C36" s="44" t="s">
-        <v>223</v>
+      <c r="C36" s="43" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="2:9">
-      <c r="C37" s="43" t="s">
-        <v>212</v>
+      <c r="C37" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="C38" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -2839,10 +2852,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="18"/>
@@ -2852,15 +2865,15 @@
     </row>
     <row r="40" spans="2:9">
       <c r="C40" s="22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="45"/>
+      <c r="H40" s="44"/>
       <c r="I40" s="21"/>
     </row>
   </sheetData>
@@ -2881,65 +2894,65 @@
   <sheetData>
     <row r="3" spans="2:4" ht="23">
       <c r="B3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="34"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
         <v>143</v>
-      </c>
-      <c r="C9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -2948,15 +2961,15 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2969,155 +2982,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="81" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:8" ht="23">
       <c r="B3" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21">
         <v>573</v>
+      </c>
+      <c r="F21" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="C22" s="16"/>
       <c r="D22" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="F22" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="40" t="s">
-        <v>163</v>
-      </c>
       <c r="G22" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="I22" s="40" t="s">
         <v>191</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="C23" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D23" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>165</v>
-      </c>
       <c r="F23" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="9"/>
@@ -3128,7 +3144,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="9"/>
@@ -3139,26 +3155,26 @@
       <c r="E25" s="36"/>
       <c r="F25" s="36"/>
       <c r="G25" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H25" s="41"/>
       <c r="I25" s="36"/>
     </row>
     <row r="26" spans="2:9">
       <c r="C26" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>180</v>
-      </c>
       <c r="G26" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H26" s="42"/>
       <c r="I26" s="38"/>
@@ -3169,7 +3185,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="9"/>
@@ -3181,26 +3197,26 @@
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
       <c r="G28" s="41" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H28" s="41"/>
       <c r="I28" s="36"/>
     </row>
     <row r="29" spans="2:9">
       <c r="C29" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="9"/>
@@ -3211,7 +3227,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="9"/>
@@ -3222,7 +3238,7 @@
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="41" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H31" s="41"/>
       <c r="I31" s="36"/>
@@ -3232,16 +3248,16 @@
         <v>4</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="9"/>
@@ -3252,7 +3268,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="9"/>
@@ -3263,7 +3279,7 @@
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
       <c r="G34" s="41" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H34" s="41"/>
       <c r="I34" s="36"/>
@@ -3273,16 +3289,16 @@
         <v>5</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="9"/>
@@ -3293,7 +3309,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
@@ -3304,7 +3320,7 @@
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="41" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="36"/>
@@ -3314,16 +3330,16 @@
         <v>6</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H38" s="12"/>
     </row>
@@ -3333,7 +3349,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H39" s="12"/>
     </row>
@@ -3351,13 +3367,13 @@
         <v>7</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="3:9">
@@ -3366,7 +3382,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="3:9">
@@ -3383,13 +3399,16 @@
         <v>8</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="H44" s="9"/>
     </row>
@@ -3399,7 +3418,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="3:9">
@@ -3416,13 +3435,13 @@
         <v>9</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="3:9">
@@ -3431,7 +3450,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="3:9">
@@ -3448,13 +3467,13 @@
         <v>10</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="3:9">
@@ -3463,7 +3482,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="3:9">
@@ -3480,13 +3499,13 @@
         <v>11</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="3:9">
@@ -3495,7 +3514,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="3:9">
@@ -3512,13 +3531,13 @@
         <v>12</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="3:9">
@@ -3527,7 +3546,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="3:9">
@@ -3544,13 +3563,13 @@
         <v>13</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="3:9">
@@ -3559,7 +3578,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="3:9">
@@ -3576,13 +3595,13 @@
         <v>14</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="3:9">
@@ -3591,7 +3610,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="3:9">
@@ -3608,13 +3627,13 @@
         <v>15</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="3:7">
@@ -3623,33 +3642,33 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="3:7">
       <c r="C68" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="69" spans="3:7">
       <c r="C69" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="3:7">
       <c r="C70" s="28" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D70" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="3:7">
       <c r="C71" s="28" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3662,7 +3681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E80945-24DB-C141-B44D-936E4EBEACB4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData/>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBE9C66-CDC9-2A4C-B2EB-A38457EFF08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A436D831-0705-C846-AB97-241F40CAD605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="265">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1209,15 +1209,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2) 미니게임 첫 화면은 노말 난이도이며, 하단의 난이도 변경 UI를 PUSH하는 경우 난이도가 변경된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3) 최고기록의 저장은 난이도별로 따로 진행이 된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>객체 지향 프로그래밍 실력이 뛰어나다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 미니게임 첫 화면은 노말 난이도이며, 상단의 난이도 변경 UI를 PUSH하는 경우 난이도가 변경된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 읽는 것을 좋아한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동방에서 '어…?' 하다가 판다에게 끌려갔다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호기심이 많지만 스스로 해결하려는 능력이 없다. 그래서 지나가는 사람을 붙잡고 궁금증을 해결한다. 어느 날 플루가 잡은 사람은 판다였고, 그 판다는 핑프를 싫어했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딘가 모자란 사랑꾼이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">금단의 사랑. 판다행성의 누군가를 좋아했다. 플럼 월드에서 유일하게 자발적으로 판다행성에 갔다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠르다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>느리다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낯을 많이 가린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성격이 고약하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">항상 자기가 대장이어야 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5 2층</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1495,7 +1539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1630,6 +1674,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2042,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" zoomScale="142" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2144,12 +2191,12 @@
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -2186,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
   <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="93" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView topLeftCell="A34" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2449,7 +2496,7 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="2:2">
@@ -2467,7 +2514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B90982-F20D-AF41-81F0-4A32B272D676}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="117" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -2886,7 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624540-7EAE-9D40-A1F4-261D478CFCF8}">
   <dimension ref="B3:D18"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2982,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3358,7 +3405,9 @@
       <c r="D40" s="37"/>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
-      <c r="G40" s="41"/>
+      <c r="G40" s="12" t="s">
+        <v>256</v>
+      </c>
       <c r="H40" s="41"/>
       <c r="I40" s="16"/>
     </row>
@@ -3374,6 +3423,9 @@
       </c>
       <c r="F41" s="9" t="s">
         <v>181</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="3:9">
@@ -3390,7 +3442,9 @@
       <c r="D43" s="37"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
-      <c r="G43" s="16"/>
+      <c r="G43" s="16" t="s">
+        <v>258</v>
+      </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
     </row>
@@ -3408,7 +3462,7 @@
         <v>180</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H44" s="9"/>
     </row>
@@ -3426,7 +3480,9 @@
       <c r="D46" s="37"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="16" t="s">
+        <v>255</v>
+      </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
     </row>
@@ -3442,6 +3498,9 @@
       </c>
       <c r="F47" s="9" t="s">
         <v>181</v>
+      </c>
+      <c r="G47" s="45" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="3:9">
@@ -3475,6 +3534,9 @@
       <c r="F50" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="G50" s="45" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="51" spans="3:9">
       <c r="C51" s="9"/>
@@ -3539,6 +3601,9 @@
       <c r="F56" s="9" t="s">
         <v>181</v>
       </c>
+      <c r="G56" s="12" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="9"/>
@@ -3571,6 +3636,9 @@
       <c r="F59" s="9" t="s">
         <v>181</v>
       </c>
+      <c r="G59" s="45" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="60" spans="3:9">
       <c r="C60" s="9"/>
@@ -3603,6 +3671,9 @@
       <c r="F62" s="9" t="s">
         <v>181</v>
       </c>
+      <c r="G62" s="45" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="9"/>
@@ -3634,6 +3705,9 @@
       </c>
       <c r="F65" s="9" t="s">
         <v>181</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="3:7">

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A436D831-0705-C846-AB97-241F40CAD605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B578A1-87E7-0746-8C4A-8557999A3C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="7820" yWindow="760" windowWidth="22420" windowHeight="17400" activeTab="7" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="4. 미니게임 시작 화면" sheetId="1" r:id="rId5"/>
     <sheet name="5. 미니게임 스토리" sheetId="5" r:id="rId6"/>
     <sheet name="7. 캐릭터" sheetId="9" r:id="rId7"/>
-    <sheet name="ㅇ" sheetId="8" r:id="rId8"/>
+    <sheet name="8. 사운드 요소" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="304">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1262,6 +1262,162 @@
   </si>
   <si>
     <t>2.5 2층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 사운드 요소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.0 배경음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평화로움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부사용처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴박함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴 게임,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다 먹이 횟수 게임, 참참참</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평화-&gt;긴박</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프벽 게임, 스키 게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔잔함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무서움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 목차화면(HARD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 튜토리얼 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이룸 기본화면, 꾸미기 화면, 미니게임 목차 화면(NOMAL), 상점 화면, 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 효과음 1개(버튼 PUSH)로 통일한다. 예외 사항이 생길 경우 따로 표시한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임스타트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2 미니게임 세부 효과음 (1-2초 이내 사운드)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 구출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 점프벽 게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프사운드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 판다게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹는 효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 동굴 게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 참참참</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콤보 효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참참참 손</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿅망치 맞는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 스키게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 파괴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1 버튼 효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고기록 달성 시 사운드 , 점수판 사운드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1348,7 +1504,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1533,13 +1689,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1675,8 +1842,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2089,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3029,7 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
@@ -3499,7 +3675,7 @@
       <c r="F47" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="12" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3534,7 +3710,7 @@
       <c r="F50" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="12" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3636,7 +3812,7 @@
       <c r="F59" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G59" s="45" t="s">
+      <c r="G59" s="12" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3671,7 +3847,7 @@
       <c r="F62" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="G62" s="45" t="s">
+      <c r="G62" s="12" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3753,14 +3929,195 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E80945-24DB-C141-B44D-936E4EBEACB4}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:5" ht="23">
+      <c r="B3" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="16"/>
+      <c r="C8" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" s="48" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="C11" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="47" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="47" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="47" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="47" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B578A1-87E7-0746-8C4A-8557999A3C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D400F-0679-A543-8077-A658D3822C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="760" windowWidth="22420" windowHeight="17400" activeTab="7" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="3" activeTab="7" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="307">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1417,7 +1417,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>최고기록 달성 시 사운드 , 점수판 사운드</t>
+    <t>//민재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//현지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최고기록 달성 시 사운드 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수판 정산 사운드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2265,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="131" workbookViewId="0">
+    <sheetView zoomScale="157" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3205,7 +3217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="93" workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
@@ -3929,10 +3941,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E80945-24DB-C141-B44D-936E4EBEACB4}">
-  <dimension ref="B3:E36"/>
+  <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="173" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4039,80 +4051,95 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:6">
       <c r="B17" s="47" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:6">
       <c r="B18" s="47" t="s">
         <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
+        <v>305</v>
+      </c>
+      <c r="F18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="47" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:6">
       <c r="B20" s="47" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="D22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="47" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="D25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="47" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="D30" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="47" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:6">
       <c r="B32" s="47" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:4">
       <c r="B33" s="47" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="D35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" s="47" t="s">
         <v>300</v>
       </c>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D400F-0679-A543-8077-A658D3822C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77623812-2C14-E24A-9DFD-7DA2F4CF2E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="3" activeTab="7" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17400" firstSheet="3" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -1117,10 +1117,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>북</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>참참참 게임 환산 재화 + 10%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1430,6 +1426,10 @@
   </si>
   <si>
     <t>점수판 정산 사운드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -2374,17 +2374,17 @@
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -2684,7 +2684,7 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="2:2">
@@ -3217,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:I71"/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3330,7 +3330,7 @@
         <v>573</v>
       </c>
       <c r="F21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -3432,7 +3432,7 @@
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
       <c r="G28" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="41"/>
       <c r="I28" s="36"/>
@@ -3473,7 +3473,7 @@
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H31" s="41"/>
       <c r="I31" s="36"/>
@@ -3514,7 +3514,7 @@
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
       <c r="G34" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H34" s="41"/>
       <c r="I34" s="36"/>
@@ -3555,7 +3555,7 @@
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="36"/>
@@ -3584,7 +3584,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H39" s="12"/>
     </row>
@@ -3594,7 +3594,7 @@
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
       <c r="G40" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H40" s="41"/>
       <c r="I40" s="16"/>
@@ -3613,7 +3613,7 @@
         <v>181</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="3:9">
@@ -3622,7 +3622,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="3:9">
@@ -3631,7 +3631,7 @@
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
       <c r="G43" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
@@ -3650,7 +3650,7 @@
         <v>180</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H44" s="9"/>
     </row>
@@ -3660,7 +3660,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="3:9">
@@ -3669,7 +3669,7 @@
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
       <c r="G46" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
@@ -3688,7 +3688,7 @@
         <v>181</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="3:9">
@@ -3697,7 +3697,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="3:9">
@@ -3723,7 +3723,7 @@
         <v>179</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="3:9">
@@ -3764,7 +3764,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="3:9">
@@ -3790,7 +3790,7 @@
         <v>181</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="3:9">
@@ -3799,7 +3799,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="3:9">
@@ -3825,7 +3825,7 @@
         <v>181</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="3:9">
@@ -3834,7 +3834,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="3:9">
@@ -3860,7 +3860,7 @@
         <v>181</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="3:9">
@@ -3869,7 +3869,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="3:9">
@@ -3886,7 +3886,7 @@
         <v>15</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>221</v>
@@ -3895,7 +3895,7 @@
         <v>181</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="3:7">
@@ -3904,33 +3904,33 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="3:7">
       <c r="C68" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="3:7">
       <c r="C69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="3:7">
       <c r="C70" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" t="s">
         <v>235</v>
-      </c>
-      <c r="D70" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="71" spans="3:7">
       <c r="C71" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" t="s">
         <v>237</v>
-      </c>
-      <c r="D71" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -3943,7 +3943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E80945-24DB-C141-B44D-936E4EBEACB4}">
   <dimension ref="B3:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="173" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -3951,109 +3951,109 @@
   <sheetData>
     <row r="3" spans="2:5" ht="23">
       <c r="B3" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>270</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>271</v>
       </c>
       <c r="E5" s="46"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" t="s">
         <v>272</v>
-      </c>
-      <c r="D7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>276</v>
       </c>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="D10" t="s">
         <v>279</v>
-      </c>
-      <c r="D10" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" t="s">
         <v>281</v>
-      </c>
-      <c r="D11" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -4061,87 +4061,87 @@
         <v>206</v>
       </c>
       <c r="D18" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" t="s">
         <v>305</v>
-      </c>
-      <c r="F18" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="47" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77623812-2C14-E24A-9DFD-7DA2F4CF2E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A963BF0-EF1D-2A4D-9AF7-73078CB4D2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17400" firstSheet="3" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="308">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1430,6 +1430,10 @@
   </si>
   <si>
     <t>부기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 상점 판다 랜덤 문구</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3119,10 +3123,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624540-7EAE-9D40-A1F4-261D478CFCF8}">
-  <dimension ref="B3:D18"/>
+  <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A6" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3205,6 +3209,11 @@
       </c>
       <c r="C18" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="93" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="64" workbookViewId="0">
       <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A963BF0-EF1D-2A4D-9AF7-73078CB4D2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3B6596-7472-4E2A-B36B-1B08CF5F3709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17400" firstSheet="3" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -27,23 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="323">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1217,10 +1206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>책 읽는 것을 좋아한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>동방에서 '어…?' 하다가 판다에게 끌려갔다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1233,10 +1218,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">금단의 사랑. 판다행성의 누군가를 좋아했다. 플럼 월드에서 유일하게 자발적으로 판다행성에 갔다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>빠르다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1434,6 +1415,99 @@
   </si>
   <si>
     <t>5.2 상점 판다 랜덤 문구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4 도감 화면(콘티 참고)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 최초 도감의 왼쪽 중앙에는 대표 캐릭터 그림이 표시된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 캐릭터 그림 위쪽에는 캐릭터를 대표 캐릭터로 설정할 수 있는 버튼이 존재한다. 또한 캐릭터 그림 아래에는 이름과 등급이 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 대표 캐릭터 오른쪽 부분에 캐릭터 별 특징과 능력, 스토리가 표시된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 화면 최상단 오른쪽에는 직전화면으로 돌아갈 수 있는 버튼이 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 화면 최하단 왼쪽과 오른쪽에는 이전페이지와 다음페이지로 갈 수 있는 버튼이 존재한다. 이때 왼쪽 버튼은 이전페이지, 오른쪽 버튼은 다음페이지로 갈 수 있는 버튼이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6) 다음페이지로 갈 수 있는 버튼을 push하면 다른 캐릭터가 표시된다. 이때 얻지 못한 캐릭터의 그림은 흑백 그림으로 표시된다. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//흑백이 어려우면 어둡게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">금단의 사랑. 판다행성의 누군가를 좋아했다. 플럼 월드에서 유일하게 대책없이 판다행성에 갔다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코리와 달리기 시합중 본인의 스피드를 뽐내다 길을 헤매고 제발로 판다행성에 들어가게 됐다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코끼리와의 영역 싸움 도중을 노려 판다 종족이 치고 들어왔다. 코리는 너무 느려 저항하지 못하고 판다에게 끌려가게 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당돌하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부기의 오해를 바로잡기 위해 부기를 찾아 나선다. 부기를 찾아 직접 오해를 풀고 마음을 전할거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낯을 가리는 탓에 낯선 동물과 함께 있으면 가시를 세우는 버릇이 있다. 이에 판다는 최첨단 무기 발명에 영감을 받아 해피를 거짓 계약서로 꼬드겨 판다행성에 데려간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느날과 같이 노름에 빠져 약속을 지키지 않은 이브에게 화를 내러 가던 도중 납치되는 이브를 목격한다. 이브를 구하러 판다행성에 잠입한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플럼 월드를 지키는 대장의 역할을 다하기 위해 끌려간 친구들을 구출하러 판다행성으로 간다. 알리의 공을 높게 사는듯 하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 읽는 것을 좋아한다. 시력이 안 좋다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책을 좋아하는 부기는 안 좋은 시력 탓에 라식을 하게 되고 며칠간 앓아 눕는다. 그동안 옆에서 책을 읽어준 세리의 목소리를 판다로 오해하고 판다를 만나러 판다행성으로 간다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1441,7 +1515,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1496,6 +1570,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2190,9 +2273,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="8" spans="3:13" ht="23">
+    <row r="8" spans="3:13" ht="25.5" x14ac:dyDescent="0.45">
       <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
@@ -2203,7 +2286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2214,7 +2297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="23">
+    <row r="10" spans="3:13" ht="25.5" x14ac:dyDescent="0.45">
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
@@ -2225,7 +2308,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2236,7 +2319,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
@@ -2244,7 +2327,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>203</v>
       </c>
@@ -2252,7 +2335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:13">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
@@ -2260,13 +2343,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
       <c r="G16" s="1" t="s">
         <v>132</v>
       </c>
@@ -2285,134 +2368,134 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="23">
+    <row r="3" spans="2:2" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="23">
+    <row r="8" spans="2:2" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="2:2" ht="23">
+    <row r="9" spans="2:2" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="1"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
@@ -2429,19 +2512,19 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="2:11" ht="23">
+    <row r="5" spans="2:11" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -2455,42 +2538,42 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>56</v>
       </c>
@@ -2500,7 +2583,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="2:12" ht="19" thickBot="1">
+    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
@@ -2521,7 +2604,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="2:12" ht="19" thickTop="1">
+    <row r="19" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B19" s="23" t="s">
         <v>40</v>
       </c>
@@ -2533,49 +2616,49 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C29" s="22" t="s">
         <v>42</v>
       </c>
@@ -2588,79 +2671,79 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C35" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C46" s="33" t="s">
         <v>135</v>
       </c>
@@ -2673,7 +2756,7 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C47" s="32" t="s">
         <v>136</v>
       </c>
@@ -2686,12 +2769,12 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>133</v>
       </c>
@@ -2710,39 +2793,39 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="23">
+    <row r="3" spans="2:3" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="28" t="s">
         <v>76</v>
       </c>
@@ -2750,7 +2833,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="28" t="s">
         <v>78</v>
       </c>
@@ -2758,12 +2841,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="28" t="s">
         <v>80</v>
       </c>
@@ -2771,18 +2854,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="28" t="s">
         <v>84</v>
       </c>
@@ -2790,7 +2873,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
         <v>85</v>
       </c>
@@ -2798,7 +2881,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
@@ -2806,7 +2889,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
         <v>88</v>
       </c>
@@ -2814,7 +2897,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="28" t="s">
         <v>91</v>
       </c>
@@ -2822,7 +2905,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="28" t="s">
         <v>92</v>
       </c>
@@ -2830,7 +2913,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="28" t="s">
         <v>100</v>
       </c>
@@ -2838,12 +2921,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" s="12"/>
     </row>
   </sheetData>
@@ -2860,51 +2943,51 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:3" ht="23">
+    <row r="3" spans="2:3" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:3" ht="19" thickBot="1">
+    <row r="11" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
@@ -2912,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>3</v>
       </c>
@@ -2920,7 +3003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -2928,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -2936,7 +3019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2944,7 +3027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2952,22 +3035,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
@@ -2979,7 +3062,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
@@ -2991,7 +3074,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
@@ -3003,7 +3086,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="22" t="s">
         <v>110</v>
       </c>
@@ -3015,7 +3098,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="30" t="s">
         <v>111</v>
       </c>
@@ -3027,27 +3110,27 @@
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="31" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="19" thickBot="1">
+    <row r="32" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
@@ -3055,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
         <v>206</v>
       </c>
@@ -3063,7 +3146,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>207</v>
       </c>
@@ -3071,22 +3154,22 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C36" s="43" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>8</v>
       </c>
@@ -3102,7 +3185,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C40" s="22" t="s">
         <v>213</v>
       </c>
@@ -3129,25 +3212,25 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:4" ht="23">
+    <row r="3" spans="2:4" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="28" t="s">
         <v>140</v>
       </c>
@@ -3155,12 +3238,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="28" t="s">
         <v>142</v>
       </c>
@@ -3168,12 +3251,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="28" t="s">
         <v>145</v>
       </c>
@@ -3181,12 +3264,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="28" t="s">
         <v>149</v>
       </c>
@@ -3194,16 +3277,16 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
         <v>150</v>
       </c>
@@ -3211,9 +3294,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3224,30 +3307,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
-  <dimension ref="B3:I71"/>
+  <dimension ref="B3:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="64" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="54" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:8" ht="23">
+    <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>129</v>
       </c>
@@ -3255,7 +3338,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="22" t="s">
         <v>130</v>
       </c>
@@ -3270,7 +3353,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="22" t="s">
         <v>157</v>
       </c>
@@ -3285,228 +3368,141 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C30" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E21">
+      <c r="E30">
         <v>573</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F30" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="C22" s="16"/>
-      <c r="D22" s="40" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C31" s="16"/>
+      <c r="D31" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E31" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F31" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G31" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H31" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I31" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="C23" s="9" t="s">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C32" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D32" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="C24" s="9"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="36"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="C26" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="C27" s="9"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="1"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="36"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="C29" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="36"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="C32" s="9">
-        <v>4</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>179</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="3:9">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C33" s="9"/>
       <c r="D33" s="31"/>
       <c r="E33" s="9"/>
@@ -3517,428 +3513,571 @@
       <c r="H33" s="12"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="3:9">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C34" s="36"/>
       <c r="D34" s="37"/>
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
       <c r="G34" s="41" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="H34" s="41"/>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="3:9">
-      <c r="C35" s="9">
-        <v>5</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="3:9">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C35" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C36" s="9"/>
       <c r="D36" s="31"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="3:9">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="3:9">
-      <c r="C38" s="9">
-        <v>6</v>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C38" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="3:9">
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C39" s="9"/>
-      <c r="D39" s="31"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="12" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="3:9">
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C40" s="36"/>
-      <c r="D40" s="37"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
-      <c r="G40" s="12" t="s">
-        <v>255</v>
+      <c r="G40" s="41" t="s">
+        <v>242</v>
       </c>
       <c r="H40" s="41"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" spans="3:9">
+      <c r="I40" s="36"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C41" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9">
+        <v>179</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C42" s="9"/>
       <c r="D42" s="31"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9">
+      <c r="G42" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C43" s="36"/>
       <c r="D43" s="37"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
-      <c r="G43" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="3:9">
+      <c r="G43" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H43" s="41"/>
+      <c r="I43" s="36"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C44" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>180</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="3:9">
+        <v>186</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C45" s="9"/>
       <c r="D45" s="31"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9">
+      <c r="G45" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C46" s="36"/>
       <c r="D46" s="37"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" spans="3:9">
+      <c r="G46" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="36"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C47" s="9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>181</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9">
+        <v>183</v>
+      </c>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C48" s="9"/>
       <c r="D48" s="31"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9">
+        <v>232</v>
+      </c>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C49" s="36"/>
       <c r="D49" s="37"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
+      <c r="G49" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" s="41"/>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="3:9">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C50" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9">
+        <v>181</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C51" s="9"/>
       <c r="D51" s="31"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9">
+      <c r="G51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C52" s="36"/>
       <c r="D52" s="37"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="16" t="s">
+        <v>313</v>
+      </c>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="3:9">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C53" s="9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="54" spans="3:9">
+      <c r="G53" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C54" s="9"/>
       <c r="D54" s="31"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="3:9">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C56" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>181</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9">
+      <c r="G57" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="D58" s="37"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="16" t="s">
+        <v>314</v>
+      </c>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="3:9">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C59" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9">
+      <c r="G60" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="16" t="s">
+        <v>315</v>
+      </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="3:9">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C62" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C63" s="9"/>
       <c r="D63" s="31"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C64" s="36"/>
-      <c r="D64" s="37"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="16"/>
+      <c r="G64" s="16" t="s">
+        <v>317</v>
+      </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C65" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>181</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C68" s="9">
+        <v>13</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C71" s="9">
+        <v>14</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C72" s="9"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C73" s="36"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C74" s="9">
+        <v>15</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="68" spans="3:7">
-      <c r="C68" s="1" t="s">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G76" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C77" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="3:7">
-      <c r="C69" t="s">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C78" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="3:7">
-      <c r="C70" s="28" t="s">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C79" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D79" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="3:7">
-      <c r="C71" s="28" t="s">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C80" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D80" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3956,201 +4095,201 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="23">
+    <row r="3" spans="2:5" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="45" t="s">
+      <c r="C6" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="45" t="s">
+      <c r="D7" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="C7" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="C10" s="48" t="s">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="C11" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="40" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="47" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="47" t="s">
         <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="47" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="47" t="s">
+      <c r="D22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="47" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
         <v>289</v>
       </c>
-      <c r="D22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="47" t="s">
+      <c r="D25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="47" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
         <v>291</v>
       </c>
-      <c r="D25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="47" t="s">
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
+      <c r="D30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="47" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="D30" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="47" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="47" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="47" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="47" t="s">
+      <c r="D35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="47" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>298</v>
-      </c>
-      <c r="D35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="47" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A963BF0-EF1D-2A4D-9AF7-73078CB4D2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A99447-DCA8-3E42-9AA1-9A44BB8CA963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17400" firstSheet="3" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26220" windowHeight="17400" firstSheet="3" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="312">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1434,6 +1434,22 @@
   </si>
   <si>
     <t>5.2 상점 판다 랜덤 문구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.2 도감 화면 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 오른 쪽 상단 '직전화면(마이룸)'으로 돌아갈 수 있는 ui가 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 하단에 양 쪽 페이지 넘길 수 있는 버튼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3) 캐릭터는 플레이어가 획득한 순서대로 1페이지 부터 15페이지 까지 채워진다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3224,10 +3240,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
-  <dimension ref="B3:I71"/>
+  <dimension ref="B3:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="64" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="108" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3940,6 +3956,26 @@
       </c>
       <c r="D71" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="C73" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="C74" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="C75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="C76" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A99447-DCA8-3E42-9AA1-9A44BB8CA963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8BB2DF-38BF-4CD5-8A66-6A8E92654167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26220" windowHeight="17400" firstSheet="3" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -27,23 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="327">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1217,10 +1206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>책 읽는 것을 좋아한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>동방에서 '어…?' 하다가 판다에게 끌려갔다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1233,10 +1218,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">금단의 사랑. 판다행성의 누군가를 좋아했다. 플럼 월드에서 유일하게 자발적으로 판다행성에 갔다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>빠르다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1450,6 +1431,99 @@
   </si>
   <si>
     <t xml:space="preserve">3) 캐릭터는 플레이어가 획득한 순서대로 1페이지 부터 15페이지 까지 채워진다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4 도감 화면(콘티 참고)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 최초 도감의 왼쪽 중앙에는 대표 캐릭터 그림이 표시된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 캐릭터 그림 위쪽에는 캐릭터를 대표 캐릭터로 설정할 수 있는 버튼이 존재한다. 또한 캐릭터 그림 아래에는 이름과 등급이 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 대표 캐릭터 오른쪽 부분에 캐릭터 별 특징과 능력, 스토리가 표시된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 화면 최상단 오른쪽에는 직전화면으로 돌아갈 수 있는 버튼이 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 화면 최하단 왼쪽과 오른쪽에는 이전페이지와 다음페이지로 갈 수 있는 버튼이 존재한다. 이때 왼쪽 버튼은 이전페이지, 오른쪽 버튼은 다음페이지로 갈 수 있는 버튼이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6) 다음페이지로 갈 수 있는 버튼을 push하면 다른 캐릭터가 표시된다. 이때 얻지 못한 캐릭터의 그림은 흑백 그림으로 표시된다. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//흑백이 어려우면 어둡게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">금단의 사랑. 판다행성의 누군가를 좋아했다. 플럼 월드에서 유일하게 대책없이 판다행성에 갔다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코리와 달리기 시합중 본인의 스피드를 뽐내다 길을 헤매고 제발로 판다행성에 들어가게 됐다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코끼리와의 영역 싸움 도중을 노려 판다 종족이 치고 들어왔다. 코리는 너무 느려 저항하지 못하고 판다에게 끌려가게 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당돌하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부기의 오해를 바로잡기 위해 부기를 찾아 나선다. 부기를 찾아 직접 오해를 풀고 마음을 전할거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낯을 가리는 탓에 낯선 동물과 함께 있으면 가시를 세우는 버릇이 있다. 이에 판다는 최첨단 무기 발명에 영감을 받아 해피를 거짓 계약서로 꼬드겨 판다행성에 데려간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느날과 같이 노름에 빠져 약속을 지키지 않은 이브에게 화를 내러 가던 도중 납치되는 이브를 목격한다. 이브를 구하러 판다행성에 잠입한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플럼 월드를 지키는 대장의 역할을 다하기 위해 끌려간 친구들을 구출하러 판다행성으로 간다. 알리의 공을 높게 사는듯 하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 읽는 것을 좋아한다. 시력이 안 좋다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책을 좋아하는 부기는 안 좋은 시력 탓에 라식을 하게 되고 며칠간 앓아 눕는다. 그동안 옆에서 책을 읽어준 세리의 목소리를 판다로 오해하고 판다를 만나러 판다행성으로 간다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1457,7 +1531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1512,6 +1586,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2206,9 +2289,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="8" spans="3:13" ht="23">
+    <row r="8" spans="3:13" ht="25.5" x14ac:dyDescent="0.45">
       <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
@@ -2219,7 +2302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2230,7 +2313,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="23">
+    <row r="10" spans="3:13" ht="25.5" x14ac:dyDescent="0.45">
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
@@ -2241,7 +2324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2252,7 +2335,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
@@ -2260,7 +2343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>203</v>
       </c>
@@ -2268,7 +2351,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:13">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
@@ -2276,13 +2359,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
       <c r="G16" s="1" t="s">
         <v>132</v>
       </c>
@@ -2301,134 +2384,134 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="23">
+    <row r="3" spans="2:2" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="23">
+    <row r="8" spans="2:2" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="2:2" ht="23">
+    <row r="9" spans="2:2" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="1"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
@@ -2445,19 +2528,19 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="2:11" ht="23">
+    <row r="5" spans="2:11" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -2471,42 +2554,42 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>56</v>
       </c>
@@ -2516,7 +2599,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="2:12" ht="19" thickBot="1">
+    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
@@ -2537,7 +2620,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="2:12" ht="19" thickTop="1">
+    <row r="19" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B19" s="23" t="s">
         <v>40</v>
       </c>
@@ -2549,49 +2632,49 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C29" s="22" t="s">
         <v>42</v>
       </c>
@@ -2604,79 +2687,79 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C35" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C46" s="33" t="s">
         <v>135</v>
       </c>
@@ -2689,7 +2772,7 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C47" s="32" t="s">
         <v>136</v>
       </c>
@@ -2702,12 +2785,12 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>133</v>
       </c>
@@ -2726,39 +2809,39 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="23">
+    <row r="3" spans="2:3" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="28" t="s">
         <v>76</v>
       </c>
@@ -2766,7 +2849,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="28" t="s">
         <v>78</v>
       </c>
@@ -2774,12 +2857,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="28" t="s">
         <v>80</v>
       </c>
@@ -2787,18 +2870,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="28" t="s">
         <v>84</v>
       </c>
@@ -2806,7 +2889,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
         <v>85</v>
       </c>
@@ -2814,7 +2897,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
@@ -2822,7 +2905,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
         <v>88</v>
       </c>
@@ -2830,7 +2913,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="28" t="s">
         <v>91</v>
       </c>
@@ -2838,7 +2921,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="28" t="s">
         <v>92</v>
       </c>
@@ -2846,7 +2929,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="28" t="s">
         <v>100</v>
       </c>
@@ -2854,12 +2937,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" s="12"/>
     </row>
   </sheetData>
@@ -2876,51 +2959,51 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:3" ht="23">
+    <row r="3" spans="2:3" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:3" ht="19" thickBot="1">
+    <row r="11" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>3</v>
       </c>
@@ -2936,7 +3019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -2944,7 +3027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -2952,7 +3035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -2960,7 +3043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -2968,22 +3051,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
@@ -2995,7 +3078,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
@@ -3007,7 +3090,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
@@ -3019,7 +3102,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="22" t="s">
         <v>110</v>
       </c>
@@ -3031,7 +3114,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="30" t="s">
         <v>111</v>
       </c>
@@ -3043,27 +3126,27 @@
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="31" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="19" thickBot="1">
+    <row r="32" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
@@ -3071,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
         <v>206</v>
       </c>
@@ -3079,7 +3162,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>207</v>
       </c>
@@ -3087,22 +3170,22 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C36" s="43" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>8</v>
       </c>
@@ -3118,7 +3201,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C40" s="22" t="s">
         <v>213</v>
       </c>
@@ -3145,25 +3228,25 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:4" ht="23">
+    <row r="3" spans="2:4" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="28" t="s">
         <v>140</v>
       </c>
@@ -3171,12 +3254,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="28" t="s">
         <v>142</v>
       </c>
@@ -3184,12 +3267,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="28" t="s">
         <v>145</v>
       </c>
@@ -3197,12 +3280,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="28" t="s">
         <v>149</v>
       </c>
@@ -3210,16 +3293,16 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
         <v>150</v>
       </c>
@@ -3227,9 +3310,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3240,30 +3323,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
-  <dimension ref="B3:I76"/>
+  <dimension ref="B3:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:8" ht="23">
+    <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>129</v>
       </c>
@@ -3271,7 +3354,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="22" t="s">
         <v>130</v>
       </c>
@@ -3286,7 +3369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="22" t="s">
         <v>157</v>
       </c>
@@ -3301,681 +3384,737 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C33" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E21">
+      <c r="E33">
         <v>573</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F33" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="C22" s="16"/>
-      <c r="D22" s="40" t="s">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C34" s="16"/>
+      <c r="D34" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E34" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F34" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G34" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H34" s="40" t="s">
         <v>193</v>
       </c>
-      <c r="I22" s="40" t="s">
+      <c r="I34" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="C23" s="9" t="s">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C35" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D35" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G35" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="C24" s="9"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="36"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="C26" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="C27" s="9"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="1"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="36"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="C29" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="36"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="C32" s="9">
-        <v>4</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="3:9">
-      <c r="C33" s="9"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="3:9">
-      <c r="C34" s="36"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="36"/>
-    </row>
-    <row r="35" spans="3:9">
-      <c r="C35" s="9">
-        <v>5</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="3:9">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C36" s="9"/>
       <c r="D36" s="31"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="3:9">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C37" s="36"/>
       <c r="D37" s="37"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="41" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="3:9">
-      <c r="C38" s="9">
-        <v>6</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="3:9">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C38" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" s="42"/>
+      <c r="I38" s="38"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C39" s="9"/>
       <c r="D39" s="31"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="12" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="3:9">
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C40" s="36"/>
-      <c r="D40" s="37"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
-      <c r="G40" s="12" t="s">
-        <v>255</v>
+      <c r="G40" s="41" t="s">
+        <v>241</v>
       </c>
       <c r="H40" s="41"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" spans="3:9">
-      <c r="C41" s="9">
-        <v>7</v>
+      <c r="I40" s="36"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C41" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9">
+        <v>179</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C42" s="9"/>
-      <c r="D42" s="31"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9">
+      <c r="G42" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C43" s="36"/>
-      <c r="D43" s="37"/>
+      <c r="D43" s="36"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
-      <c r="G43" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="3:9">
+      <c r="G43" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="H43" s="41"/>
+      <c r="I43" s="36"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C44" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H44" s="9"/>
-    </row>
-    <row r="45" spans="3:9">
+        <v>185</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C45" s="9"/>
       <c r="D45" s="31"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9">
+      <c r="G45" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C46" s="36"/>
       <c r="D46" s="37"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
-      <c r="G46" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" spans="3:9">
+      <c r="G46" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="36"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C47" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9">
+        <v>186</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C48" s="9"/>
       <c r="D48" s="31"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9">
+        <v>184</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C49" s="36"/>
       <c r="D49" s="37"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-    </row>
-    <row r="50" spans="3:9">
+      <c r="G49" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="36"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C50" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9">
+        <v>183</v>
+      </c>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C51" s="9"/>
       <c r="D51" s="31"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9">
+        <v>232</v>
+      </c>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C52" s="36"/>
       <c r="D52" s="37"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
+      <c r="G52" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H52" s="41"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="3:9">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C53" s="9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9">
+        <v>181</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C54" s="9"/>
       <c r="D54" s="31"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="16" t="s">
+        <v>317</v>
+      </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="3:9">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C56" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9">
+        <v>251</v>
+      </c>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="D57" s="31"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="D58" s="37"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="16" t="s">
+        <v>253</v>
+      </c>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="3:9">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C59" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>181</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="D60" s="31"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9">
+      <c r="G60" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="16" t="s">
+        <v>318</v>
+      </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="3:9">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C62" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C63" s="9"/>
       <c r="D63" s="31"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
-      <c r="G63" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9">
+      <c r="G63" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C64" s="36"/>
       <c r="D64" s="37"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="16"/>
+      <c r="G64" s="16" t="s">
+        <v>319</v>
+      </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C65" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="3:7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.45">
       <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="D66" s="31"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C68" s="9">
+        <v>12</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C71" s="9">
+        <v>13</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C74" s="9">
+        <v>14</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C75" s="9"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C77" s="9">
+        <v>15</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="68" spans="3:7">
-      <c r="C68" s="1" t="s">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="G79" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C80" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="69" spans="3:7">
-      <c r="C69" t="s">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C81" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="3:7">
-      <c r="C70" s="28" t="s">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C82" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D82" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="3:7">
-      <c r="C71" s="28" t="s">
+    <row r="83" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C83" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D83" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="3:7">
-      <c r="C73" s="1" t="s">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C85" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C86" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C87" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="74" spans="3:7">
-      <c r="C74" t="s">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C88" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="75" spans="3:7">
-      <c r="C75" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="3:7">
-      <c r="C76" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3992,201 +4131,201 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="23">
+    <row r="3" spans="2:5" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="45" t="s">
+      <c r="C6" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="45" t="s">
+      <c r="D7" t="s">
         <v>270</v>
       </c>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="C7" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="D9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="C10" s="48" t="s">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
-      <c r="C11" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="40" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="47" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="47" t="s">
         <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="47" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="47" t="s">
+      <c r="D22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="47" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
         <v>289</v>
       </c>
-      <c r="D22" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="47" t="s">
+      <c r="D25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="47" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
         <v>291</v>
       </c>
-      <c r="D25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="47" t="s">
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
+      <c r="D30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="47" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="D30" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="47" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="47" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="47" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="47" t="s">
+      <c r="D35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="47" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>298</v>
-      </c>
-      <c r="D35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="47" t="s">
-        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8BB2DF-38BF-4CD5-8A66-6A8E92654167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A11E079-66B5-8246-A48C-6C5F1AA97527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="331">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1526,12 +1526,28 @@
     <t>책을 좋아하는 부기는 안 좋은 시력 탓에 라식을 하게 되고 며칠간 앓아 눕는다. 그동안 옆에서 책을 읽어준 세리의 목소리를 판다로 오해하고 판다를 만나러 판다행성으로 간다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>on/off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임이 완전히 종료된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경/효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1821,7 +1837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1967,6 +1983,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2289,9 +2308,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="8" spans="3:13" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:13" ht="23">
       <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
@@ -2302,7 +2321,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13">
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2313,7 +2332,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" ht="23">
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
@@ -2324,7 +2343,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:13">
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2335,7 +2354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:13">
       <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
@@ -2343,7 +2362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:13">
       <c r="C13" s="1" t="s">
         <v>203</v>
       </c>
@@ -2351,7 +2370,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:13">
       <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
@@ -2359,13 +2378,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:13">
       <c r="C15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:13">
       <c r="G16" s="1" t="s">
         <v>132</v>
       </c>
@@ -2380,138 +2399,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" ht="23">
       <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" ht="23">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="2:2" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" ht="23">
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3">
       <c r="C24" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3">
       <c r="C25" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3">
+      <c r="B31" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="C32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
       <c r="B33" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:2">
       <c r="B38" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:2">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
@@ -2528,19 +2563,19 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="5" spans="2:11" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" ht="23">
       <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -2554,42 +2589,42 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:11">
       <c r="B11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11">
       <c r="B12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11">
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11">
       <c r="B16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12">
       <c r="B17" s="16" t="s">
         <v>56</v>
       </c>
@@ -2599,7 +2634,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="19" thickBot="1">
       <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
@@ -2620,7 +2655,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="2:12" ht="18" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="19" thickTop="1">
       <c r="B19" s="23" t="s">
         <v>40</v>
       </c>
@@ -2632,49 +2667,49 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12">
       <c r="B21" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12">
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12">
       <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12">
       <c r="C29" s="22" t="s">
         <v>42</v>
       </c>
@@ -2687,79 +2722,79 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:12">
       <c r="C30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:12">
       <c r="C31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:12">
       <c r="C32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9">
       <c r="C33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9">
       <c r="C35" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9">
       <c r="C36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9">
       <c r="C37" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9">
       <c r="B40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9">
       <c r="B41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9">
       <c r="B42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9">
       <c r="B43" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9">
       <c r="B44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9">
       <c r="C46" s="33" t="s">
         <v>135</v>
       </c>
@@ -2772,7 +2807,7 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9">
       <c r="C47" s="32" t="s">
         <v>136</v>
       </c>
@@ -2785,12 +2820,12 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>133</v>
       </c>
@@ -2809,39 +2844,39 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3">
       <c r="B9" s="28" t="s">
         <v>76</v>
       </c>
@@ -2849,7 +2884,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3">
       <c r="B10" s="28" t="s">
         <v>78</v>
       </c>
@@ -2857,12 +2892,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3">
       <c r="B13" s="28" t="s">
         <v>80</v>
       </c>
@@ -2870,18 +2905,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
         <v>96</v>
       </c>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3">
       <c r="B17" s="28" t="s">
         <v>84</v>
       </c>
@@ -2889,7 +2924,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
         <v>85</v>
       </c>
@@ -2897,7 +2932,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3">
       <c r="B19" s="28" t="s">
         <v>86</v>
       </c>
@@ -2905,7 +2940,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="B20" s="28" t="s">
         <v>88</v>
       </c>
@@ -2913,7 +2948,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3">
       <c r="B21" s="28" t="s">
         <v>91</v>
       </c>
@@ -2921,7 +2956,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="B22" s="28" t="s">
         <v>92</v>
       </c>
@@ -2929,7 +2964,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3">
       <c r="B23" s="28" t="s">
         <v>100</v>
       </c>
@@ -2937,12 +2972,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3">
       <c r="B24" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3">
       <c r="B26" s="12"/>
     </row>
   </sheetData>
@@ -2955,55 +2990,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BE606-6101-AA4F-9339-BF222BD0FB90}">
   <dimension ref="B3:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="92" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="182" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:3" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:3" ht="19" thickBot="1">
       <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
@@ -3011,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3">
       <c r="B12" s="4">
         <v>3</v>
       </c>
@@ -3019,7 +3054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -3027,7 +3062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:3">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -3035,7 +3070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -3043,7 +3078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3051,22 +3086,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7">
       <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7">
       <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
@@ -3078,7 +3113,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7">
       <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
@@ -3090,7 +3125,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7">
       <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
@@ -3102,7 +3137,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7">
       <c r="B24" s="22" t="s">
         <v>110</v>
       </c>
@@ -3114,7 +3149,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7">
       <c r="B25" s="30" t="s">
         <v>111</v>
       </c>
@@ -3126,27 +3161,27 @@
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7">
       <c r="B27" s="31" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7">
       <c r="B28" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7">
       <c r="B29" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7">
       <c r="B31" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:7" ht="19" thickBot="1">
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9">
       <c r="B33" s="4" t="s">
         <v>206</v>
       </c>
@@ -3162,7 +3197,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9">
       <c r="B34" s="2" t="s">
         <v>207</v>
       </c>
@@ -3170,22 +3205,22 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9">
       <c r="C36" s="43" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9">
       <c r="C37" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9">
       <c r="C38" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>8</v>
       </c>
@@ -3201,7 +3236,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9">
       <c r="C40" s="22" t="s">
         <v>213</v>
       </c>
@@ -3228,25 +3263,25 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:4" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" ht="23">
       <c r="B3" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4">
       <c r="B6" s="28" t="s">
         <v>140</v>
       </c>
@@ -3254,12 +3289,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4">
       <c r="B8" s="35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4">
       <c r="B9" s="28" t="s">
         <v>142</v>
       </c>
@@ -3267,12 +3302,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4">
       <c r="B12" s="28" t="s">
         <v>145</v>
       </c>
@@ -3280,12 +3315,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4">
       <c r="B14" s="35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4">
       <c r="B15" s="28" t="s">
         <v>149</v>
       </c>
@@ -3293,16 +3328,16 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
         <v>150</v>
       </c>
@@ -3310,7 +3345,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>305</v>
       </c>
@@ -3325,28 +3360,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:8" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="23">
       <c r="B3" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>129</v>
       </c>
@@ -3354,7 +3389,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8">
       <c r="B7" s="22" t="s">
         <v>130</v>
       </c>
@@ -3369,7 +3404,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8">
       <c r="B8" s="22" t="s">
         <v>157</v>
       </c>
@@ -3384,90 +3419,90 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8">
       <c r="B13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2">
       <c r="B28" s="1"/>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:9">
       <c r="C33" s="1" t="s">
         <v>159</v>
       </c>
@@ -3478,7 +3513,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:9">
       <c r="C34" s="16"/>
       <c r="D34" s="40" t="s">
         <v>160</v>
@@ -3499,7 +3534,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:9">
       <c r="C35" s="9" t="s">
         <v>176</v>
       </c>
@@ -3518,7 +3553,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:9">
       <c r="C36" s="9"/>
       <c r="D36" s="31"/>
       <c r="E36" s="9"/>
@@ -3529,7 +3564,7 @@
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:9">
       <c r="C37" s="36"/>
       <c r="D37" s="37"/>
       <c r="E37" s="36"/>
@@ -3540,7 +3575,7 @@
       <c r="H37" s="41"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:9">
       <c r="C38" s="38" t="s">
         <v>178</v>
       </c>
@@ -3559,7 +3594,7 @@
       <c r="H38" s="42"/>
       <c r="I38" s="38"/>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:9">
       <c r="C39" s="9"/>
       <c r="D39" s="31"/>
       <c r="E39" s="9"/>
@@ -3570,7 +3605,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:9">
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
@@ -3581,7 +3616,7 @@
       <c r="H40" s="41"/>
       <c r="I40" s="36"/>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:9">
       <c r="C41" s="9" t="s">
         <v>177</v>
       </c>
@@ -3600,7 +3635,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:9">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -3611,7 +3646,7 @@
       <c r="H42" s="12"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:9">
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
@@ -3622,7 +3657,7 @@
       <c r="H43" s="41"/>
       <c r="I43" s="36"/>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:9">
       <c r="C44" s="9">
         <v>4</v>
       </c>
@@ -3641,7 +3676,7 @@
       <c r="H44" s="12"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:9">
       <c r="C45" s="9"/>
       <c r="D45" s="31"/>
       <c r="E45" s="9"/>
@@ -3652,7 +3687,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:9">
       <c r="C46" s="36"/>
       <c r="D46" s="37"/>
       <c r="E46" s="36"/>
@@ -3663,7 +3698,7 @@
       <c r="H46" s="41"/>
       <c r="I46" s="36"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:9">
       <c r="C47" s="9">
         <v>5</v>
       </c>
@@ -3682,7 +3717,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:9">
       <c r="C48" s="9"/>
       <c r="D48" s="31"/>
       <c r="E48" s="9"/>
@@ -3693,7 +3728,7 @@
       <c r="H48" s="12"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:9">
       <c r="C49" s="36"/>
       <c r="D49" s="37"/>
       <c r="E49" s="36"/>
@@ -3704,7 +3739,7 @@
       <c r="H49" s="41"/>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:9">
       <c r="C50" s="9">
         <v>6</v>
       </c>
@@ -3722,7 +3757,7 @@
       </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:9">
       <c r="C51" s="9"/>
       <c r="D51" s="31"/>
       <c r="E51" s="9"/>
@@ -3732,7 +3767,7 @@
       </c>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:9">
       <c r="C52" s="36"/>
       <c r="D52" s="37"/>
       <c r="E52" s="36"/>
@@ -3743,7 +3778,7 @@
       <c r="H52" s="41"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:9">
       <c r="C53" s="9">
         <v>7</v>
       </c>
@@ -3760,7 +3795,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:9">
       <c r="C54" s="9"/>
       <c r="D54" s="31"/>
       <c r="E54" s="9"/>
@@ -3769,7 +3804,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:9">
       <c r="C55" s="36"/>
       <c r="D55" s="37"/>
       <c r="E55" s="36"/>
@@ -3780,7 +3815,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:9">
       <c r="C56" s="9">
         <v>8</v>
       </c>
@@ -3798,7 +3833,7 @@
       </c>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:9">
       <c r="C57" s="9"/>
       <c r="D57" s="31"/>
       <c r="E57" s="9"/>
@@ -3807,7 +3842,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:9">
       <c r="C58" s="36"/>
       <c r="D58" s="37"/>
       <c r="E58" s="36"/>
@@ -3818,7 +3853,7 @@
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:9">
       <c r="C59" s="9">
         <v>9</v>
       </c>
@@ -3835,7 +3870,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:9">
       <c r="C60" s="9"/>
       <c r="D60" s="31"/>
       <c r="E60" s="9"/>
@@ -3844,7 +3879,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:9">
       <c r="C61" s="36"/>
       <c r="D61" s="37"/>
       <c r="E61" s="36"/>
@@ -3855,7 +3890,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:9">
       <c r="C62" s="9">
         <v>10</v>
       </c>
@@ -3872,7 +3907,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:9">
       <c r="C63" s="9"/>
       <c r="D63" s="31"/>
       <c r="E63" s="9"/>
@@ -3881,7 +3916,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:9">
       <c r="C64" s="36"/>
       <c r="D64" s="37"/>
       <c r="E64" s="36"/>
@@ -3892,7 +3927,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:9">
       <c r="C65" s="9">
         <v>11</v>
       </c>
@@ -3909,7 +3944,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:9">
       <c r="C66" s="9"/>
       <c r="D66" s="31"/>
       <c r="E66" s="9"/>
@@ -3918,7 +3953,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:9">
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
       <c r="E67" s="36"/>
@@ -3929,7 +3964,7 @@
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:9">
       <c r="C68" s="9">
         <v>12</v>
       </c>
@@ -3946,7 +3981,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:9">
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -3955,7 +3990,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:9">
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
       <c r="E70" s="36"/>
@@ -3966,7 +4001,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:9">
       <c r="C71" s="9">
         <v>13</v>
       </c>
@@ -3983,7 +4018,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:9">
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -3992,7 +4027,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:9">
       <c r="C73" s="36"/>
       <c r="D73" s="36"/>
       <c r="E73" s="36"/>
@@ -4003,7 +4038,7 @@
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:9">
       <c r="C74" s="9">
         <v>14</v>
       </c>
@@ -4020,7 +4055,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="3:9">
       <c r="C75" s="9"/>
       <c r="D75" s="31"/>
       <c r="E75" s="9"/>
@@ -4029,7 +4064,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:9">
       <c r="C76" s="36"/>
       <c r="D76" s="37"/>
       <c r="E76" s="36"/>
@@ -4040,7 +4075,7 @@
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:9">
       <c r="C77" s="9">
         <v>15</v>
       </c>
@@ -4057,7 +4092,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:9">
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -4066,22 +4101,22 @@
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:9">
       <c r="G79" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:9">
       <c r="C80" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:4">
       <c r="C81" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:4">
       <c r="C82" s="28" t="s">
         <v>234</v>
       </c>
@@ -4089,7 +4124,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:4">
       <c r="C83" s="28" t="s">
         <v>236</v>
       </c>
@@ -4097,22 +4132,22 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:4">
       <c r="C85" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:4">
       <c r="C86" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="3:4">
       <c r="C87" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="3:4">
       <c r="C88" t="s">
         <v>309</v>
       </c>
@@ -4131,19 +4166,19 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" ht="23">
       <c r="B3" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:5">
       <c r="B5" s="45" t="s">
         <v>267</v>
       </c>
@@ -4155,7 +4190,7 @@
       </c>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>264</v>
       </c>
@@ -4166,7 +4201,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:5">
       <c r="C7" s="48" t="s">
         <v>269</v>
       </c>
@@ -4174,7 +4209,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:5">
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
         <v>272</v>
@@ -4184,7 +4219,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>275</v>
       </c>
@@ -4195,7 +4230,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:5">
       <c r="C10" s="48" t="s">
         <v>276</v>
       </c>
@@ -4203,7 +4238,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:5">
       <c r="C11" s="48" t="s">
         <v>278</v>
       </c>
@@ -4211,22 +4246,22 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:5">
       <c r="B13" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:5">
       <c r="B16" s="40" t="s">
         <v>284</v>
       </c>
@@ -4235,12 +4270,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:6">
       <c r="B17" s="47" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:6">
       <c r="B18" s="47" t="s">
         <v>206</v>
       </c>
@@ -4251,17 +4286,17 @@
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:6">
       <c r="B19" s="47" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:6">
       <c r="B20" s="47" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>287</v>
       </c>
@@ -4269,12 +4304,12 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:6">
       <c r="B23" s="47" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:6">
       <c r="B25" t="s">
         <v>289</v>
       </c>
@@ -4282,17 +4317,17 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:6">
       <c r="B26" s="47" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:6">
       <c r="B28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6">
       <c r="B30" t="s">
         <v>292</v>
       </c>
@@ -4300,22 +4335,22 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:6">
       <c r="B31" s="47" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:6">
       <c r="B32" s="47" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4">
       <c r="B33" s="47" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>296</v>
       </c>
@@ -4323,7 +4358,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4">
       <c r="B36" s="47" t="s">
         <v>297</v>
       </c>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A11E079-66B5-8246-A48C-6C5F1AA97527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD76933-B2CD-5142-AA8D-5F7656517055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17400" firstSheet="1" activeTab="3" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="333">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1540,6 +1540,14 @@
   </si>
   <si>
     <t>배경/효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정창을 끈다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 -&gt; 자세히 보기?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1837,7 +1845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1986,6 +1994,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2399,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
@@ -2540,13 +2551,18 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="38" spans="2:2">
+    <row r="33" spans="2:3">
+      <c r="B33" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38" s="1"/>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:3">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
@@ -2840,7 +2856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B90982-F20D-AF41-81F0-4A32B272D676}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -2990,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D9BE606-6101-AA4F-9339-BF222BD0FB90}">
   <dimension ref="B3:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="182" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A6" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
@@ -3358,10 +3374,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
-  <dimension ref="B3:I88"/>
+  <dimension ref="B3:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
@@ -4150,6 +4166,11 @@
     <row r="88" spans="3:4">
       <c r="C88" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD76933-B2CD-5142-AA8D-5F7656517055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41860D39-2514-D34C-BA47-28B6E0F149B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17400" firstSheet="1" activeTab="3" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17400" firstSheet="2" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="345">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -898,18 +898,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>시작캐릭터1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작캐릭터3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작캐릭터2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>common</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1548,6 +1536,66 @@
   </si>
   <si>
     <t>스토리 -&gt; 자세히 보기?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1845,7 +1893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1994,9 +2042,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2375,7 +2420,7 @@
     </row>
     <row r="13" spans="3:13">
       <c r="C13" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>38</v>
@@ -2476,7 +2521,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -2502,22 +2547,22 @@
     <row r="22" spans="2:3">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -2537,26 +2582,26 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="49" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
         <v>328</v>
-      </c>
-      <c r="C32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -2838,7 +2883,7 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="2:2">
@@ -2856,7 +2901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B90982-F20D-AF41-81F0-4A32B272D676}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -3014,12 +3059,12 @@
   <sheetData>
     <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3104,7 +3149,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -3179,7 +3224,7 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="2:7">
@@ -3189,12 +3234,12 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="19" thickBot="1">
@@ -3207,33 +3252,33 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="C36" s="43" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="C37" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="C38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -3241,10 +3286,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="18"/>
@@ -3254,10 +3299,10 @@
     </row>
     <row r="40" spans="2:9">
       <c r="C40" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -3363,7 +3408,7 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3376,8 +3421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:I90"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
@@ -3482,37 +3527,37 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="2:2">
@@ -3526,7 +3571,7 @@
         <v>573</v>
       </c>
       <c r="F33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="3:9">
@@ -3541,18 +3586,18 @@
         <v>162</v>
       </c>
       <c r="G34" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="H34" s="40" t="s">
-        <v>193</v>
-      </c>
       <c r="I34" s="40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="3:9">
       <c r="C35" s="9" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>163</v>
@@ -3561,10 +3606,10 @@
         <v>164</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="9"/>
@@ -3575,7 +3620,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
@@ -3586,14 +3631,14 @@
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="36"/>
     </row>
     <row r="38" spans="3:9">
       <c r="C38" s="38" t="s">
-        <v>178</v>
+        <v>331</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>165</v>
@@ -3602,10 +3647,10 @@
         <v>167</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H38" s="42"/>
       <c r="I38" s="38"/>
@@ -3616,7 +3661,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="9"/>
@@ -3627,14 +3672,14 @@
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
       <c r="G40" s="41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H40" s="41"/>
       <c r="I40" s="36"/>
     </row>
     <row r="41" spans="3:9">
       <c r="C41" s="9" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>166</v>
@@ -3643,10 +3688,10 @@
         <v>168</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="9"/>
@@ -3657,7 +3702,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="9"/>
@@ -3668,26 +3713,26 @@
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
       <c r="G43" s="41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H43" s="41"/>
       <c r="I43" s="36"/>
     </row>
     <row r="44" spans="3:9">
-      <c r="C44" s="9">
-        <v>4</v>
+      <c r="C44" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>169</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="9"/>
@@ -3698,7 +3743,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="9"/>
@@ -3709,26 +3754,26 @@
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
       <c r="G46" s="41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H46" s="41"/>
       <c r="I46" s="36"/>
     </row>
     <row r="47" spans="3:9">
-      <c r="C47" s="9">
-        <v>5</v>
+      <c r="C47" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>170</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="9"/>
@@ -3739,7 +3784,7 @@
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="9"/>
@@ -3750,26 +3795,26 @@
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
       <c r="G49" s="41" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H49" s="41"/>
       <c r="I49" s="36"/>
     </row>
     <row r="50" spans="3:9">
-      <c r="C50" s="9">
-        <v>6</v>
+      <c r="C50" s="9" t="s">
+        <v>336</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>171</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H50" s="12"/>
     </row>
@@ -3779,7 +3824,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H51" s="12"/>
     </row>
@@ -3789,26 +3834,26 @@
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
       <c r="G52" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H52" s="41"/>
       <c r="I52" s="16"/>
     </row>
     <row r="53" spans="3:9">
-      <c r="C53" s="9">
-        <v>7</v>
+      <c r="C53" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>172</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="3:9">
@@ -3817,7 +3862,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="3:9">
@@ -3826,26 +3871,26 @@
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
       <c r="G55" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
     </row>
     <row r="56" spans="3:9">
-      <c r="C56" s="9">
-        <v>8</v>
+      <c r="C56" s="9" t="s">
+        <v>339</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>173</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H56" s="9"/>
     </row>
@@ -3855,7 +3900,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="3:9">
@@ -3864,26 +3909,26 @@
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
       <c r="G58" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
     </row>
     <row r="59" spans="3:9">
-      <c r="C59" s="9">
-        <v>9</v>
+      <c r="C59" s="9" t="s">
+        <v>338</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>174</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="3:9">
@@ -3892,7 +3937,7 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="3:9">
@@ -3901,26 +3946,26 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
     </row>
     <row r="62" spans="3:9">
-      <c r="C62" s="9">
-        <v>10</v>
+      <c r="C62" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>175</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="3:9">
@@ -3929,7 +3974,7 @@
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="3:9">
@@ -3938,26 +3983,26 @@
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
       <c r="G64" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
     </row>
     <row r="65" spans="3:9">
-      <c r="C65" s="9">
-        <v>11</v>
+      <c r="C65" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="3:9">
@@ -3966,7 +4011,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="3:9">
@@ -3975,26 +4020,26 @@
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
     </row>
     <row r="68" spans="3:9">
-      <c r="C68" s="9">
-        <v>12</v>
+      <c r="C68" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="3:9">
@@ -4003,7 +4048,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="3:9">
@@ -4012,26 +4057,26 @@
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="G70" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
     </row>
     <row r="71" spans="3:9">
-      <c r="C71" s="9">
-        <v>13</v>
+      <c r="C71" s="9" t="s">
+        <v>342</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="3:9">
@@ -4040,7 +4085,7 @@
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="3:9">
@@ -4049,26 +4094,26 @@
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
     </row>
     <row r="74" spans="3:9">
-      <c r="C74" s="9">
-        <v>14</v>
+      <c r="C74" s="9" t="s">
+        <v>343</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="3:9">
@@ -4077,7 +4122,7 @@
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="3:9">
@@ -4086,26 +4131,26 @@
       <c r="E76" s="36"/>
       <c r="F76" s="36"/>
       <c r="G76" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
     </row>
     <row r="77" spans="3:9">
-      <c r="C77" s="9">
-        <v>15</v>
+      <c r="C77" s="9" t="s">
+        <v>344</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="3:9">
@@ -4114,63 +4159,63 @@
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="3:9">
       <c r="G79" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="3:9">
       <c r="C80" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="3:4">
       <c r="C81" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="3:4">
       <c r="C82" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D82" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="3:4">
       <c r="C83" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="3:4">
       <c r="C85" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="C86" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="3:4">
       <c r="C87" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="C88" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="3:4">
       <c r="C90" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4191,197 +4236,197 @@
   <sheetData>
     <row r="3" spans="2:5" ht="23">
       <c r="B3" s="11" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="45" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="45" t="s">
         <v>265</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>268</v>
       </c>
       <c r="E5" s="46"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="48" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" s="48" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" s="48" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="47" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="47" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="47" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="47" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="47" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="47" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D30" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="47" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="47" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="47" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D35" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="47" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41860D39-2514-D34C-BA47-28B6E0F149B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F40B0E3-B142-124B-AFCB-16DBC1F36DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17400" firstSheet="2" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15760" windowHeight="17400" firstSheet="1" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="328">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -483,10 +483,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>그럼 건투를 빌게요! 저는 용사님이 우리 ''월드의 친구들을 모두 구할 수 있을 거라 믿거든요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2) 이야기가 끝나면 마이룸 메인화면(1.1) 으로 이동하여 게임이 진행된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -579,10 +575,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4) 플레이어의 대표 캐릭터로 설정된 캐릭터는 도감에서 '대표' 책갈피가 꽂히며, 미니게임 플레이를 진행한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2) 캐릭터는 플레이어의 획득 순서대로 업그레이드 된다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1414,67 +1406,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2) 하단에 양 쪽 페이지 넘길 수 있는 버튼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">3) 캐릭터는 플레이어가 획득한 순서대로 1페이지 부터 15페이지 까지 채워진다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.4 도감 화면(콘티 참고)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 최초 도감의 왼쪽 중앙에는 대표 캐릭터 그림이 표시된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 캐릭터 그림 위쪽에는 캐릭터를 대표 캐릭터로 설정할 수 있는 버튼이 존재한다. 또한 캐릭터 그림 아래에는 이름과 등급이 존재한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 대표 캐릭터 오른쪽 부분에 캐릭터 별 특징과 능력, 스토리가 표시된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4) 화면 최상단 오른쪽에는 직전화면으로 돌아갈 수 있는 버튼이 존재한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5) 화면 최하단 왼쪽과 오른쪽에는 이전페이지와 다음페이지로 갈 수 있는 버튼이 존재한다. 이때 왼쪽 버튼은 이전페이지, 오른쪽 버튼은 다음페이지로 갈 수 있는 버튼이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">6) 다음페이지로 갈 수 있는 버튼을 push하면 다른 캐릭터가 표시된다. 이때 얻지 못한 캐릭터의 그림은 흑백 그림으로 표시된다. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//흑백이 어려우면 어둡게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">금단의 사랑. 판다행성의 누군가를 좋아했다. 플럼 월드에서 유일하게 대책없이 판다행성에 갔다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1539,50 +1474,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>c1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>r4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1596,6 +1487,22 @@
   </si>
   <si>
     <t>r7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 건투를 빌게요! 저는 용사님이 우리 플럼월드의 친구들을 모두 구할 수 있을 거라 믿거든요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 플레이어의 대표 캐릭터로 설정된 캐릭터는 도감에서 '대표' 배치가 생기며, 미니게임 플레이를 진행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 하단에 양 쪽 페이지 넘길 수 있는 버튼이 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 도감태블릿 아래에 등급/대표캐릭터설정유무/대표캐릭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1603,7 +1510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1658,15 +1565,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2420,7 +2318,7 @@
     </row>
     <row r="13" spans="3:13">
       <c r="C13" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>38</v>
@@ -2437,12 +2335,12 @@
     <row r="15" spans="3:13">
       <c r="C15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="3:13">
       <c r="G16" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2399,7 @@
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="2:2">
@@ -2521,7 +2419,7 @@
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -2531,7 +2429,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -2547,22 +2445,22 @@
     <row r="22" spans="2:3">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="2:3">
@@ -2582,18 +2480,18 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="49" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C31" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="49" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C32" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="2:3">
@@ -2601,7 +2499,7 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -2620,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
   <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView topLeftCell="A37" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
@@ -2633,7 +2531,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -2677,7 +2575,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:11">
@@ -2733,7 +2631,7 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:12">
@@ -2826,41 +2724,41 @@
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="C46" s="33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2870,10 +2768,10 @@
     </row>
     <row r="47" spans="2:9">
       <c r="C47" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -2883,12 +2781,12 @@
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2901,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B90982-F20D-AF41-81F0-4A32B272D676}">
   <dimension ref="B2:C26"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A7" zoomScale="167" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
@@ -2973,7 +2871,7 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="29"/>
     </row>
@@ -3014,7 +2912,7 @@
         <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -3022,20 +2920,20 @@
         <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:3">
@@ -3059,12 +2957,12 @@
   <sheetData>
     <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3149,7 +3047,7 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -3200,10 +3098,10 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>112</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -3212,10 +3110,10 @@
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>113</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -3224,22 +3122,22 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="19" thickBot="1">
@@ -3252,33 +3150,33 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="C36" s="43" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="C37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="C38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="2:9">
@@ -3286,10 +3184,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>211</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="18"/>
@@ -3299,10 +3197,10 @@
     </row>
     <row r="40" spans="2:9">
       <c r="C40" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>210</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -3328,65 +3226,65 @@
   <sheetData>
     <row r="3" spans="2:4" ht="23">
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="34"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="35" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -3395,20 +3293,20 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3421,801 +3319,819 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="64" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="C60" zoomScale="117" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="2:8" ht="23">
       <c r="B3" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>106</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>313</v>
-      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1"/>
     </row>
-    <row r="33" spans="3:9">
+    <row r="33" spans="2:9">
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E33">
         <v>573</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="C34" s="16"/>
       <c r="D34" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="G34" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9">
+        <v>101</v>
+      </c>
+      <c r="D35" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="40" t="s">
+      <c r="E35" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G34" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9">
-      <c r="C35" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>164</v>
-      </c>
       <c r="F35" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="3:9">
+    <row r="36" spans="2:9">
       <c r="C36" s="9"/>
       <c r="D36" s="31"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="3:9">
+    <row r="37" spans="2:9">
       <c r="C37" s="36"/>
       <c r="D37" s="37"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="3:9">
-      <c r="C38" s="38" t="s">
-        <v>331</v>
+    <row r="38" spans="2:9">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="38">
+        <v>102</v>
       </c>
       <c r="D38" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="E38" s="38" t="s">
-        <v>167</v>
-      </c>
       <c r="F38" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H38" s="42"/>
       <c r="I38" s="38"/>
     </row>
-    <row r="39" spans="3:9">
+    <row r="39" spans="2:9">
       <c r="C39" s="9"/>
       <c r="D39" s="31"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="3:9">
+    <row r="40" spans="2:9">
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
       <c r="G40" s="41" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H40" s="41"/>
       <c r="I40" s="36"/>
     </row>
-    <row r="41" spans="3:9">
-      <c r="C41" s="9" t="s">
-        <v>332</v>
+    <row r="41" spans="2:9">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="9">
+        <v>103</v>
       </c>
       <c r="D41" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>168</v>
-      </c>
       <c r="F41" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="3:9">
+    <row r="42" spans="2:9">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="3:9">
+    <row r="43" spans="2:9">
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
       <c r="G43" s="41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H43" s="41"/>
       <c r="I43" s="36"/>
     </row>
-    <row r="44" spans="3:9">
-      <c r="C44" s="9" t="s">
-        <v>333</v>
+    <row r="44" spans="2:9">
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="9">
+        <v>104</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="3:9">
+    <row r="45" spans="2:9">
       <c r="C45" s="9"/>
       <c r="D45" s="31"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="3:9">
+    <row r="46" spans="2:9">
       <c r="C46" s="36"/>
       <c r="D46" s="37"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
       <c r="G46" s="41" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H46" s="41"/>
       <c r="I46" s="36"/>
     </row>
-    <row r="47" spans="3:9">
-      <c r="C47" s="9" t="s">
-        <v>335</v>
+    <row r="47" spans="2:9">
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47" s="9">
+        <v>301</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="3:9">
+    <row r="48" spans="2:9">
       <c r="C48" s="9"/>
       <c r="D48" s="31"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="3:9">
+    <row r="49" spans="2:9">
       <c r="C49" s="36"/>
       <c r="D49" s="37"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
       <c r="G49" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H49" s="41"/>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="3:9">
-      <c r="C50" s="9" t="s">
-        <v>336</v>
+    <row r="50" spans="2:9">
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" s="9">
+        <v>201</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F50" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>180</v>
-      </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="3:9">
+    <row r="51" spans="2:9">
       <c r="C51" s="9"/>
       <c r="D51" s="31"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="3:9">
+    <row r="52" spans="2:9">
       <c r="C52" s="36"/>
       <c r="D52" s="37"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
       <c r="G52" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H52" s="41"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="3:9">
-      <c r="C53" s="9" t="s">
-        <v>337</v>
+    <row r="53" spans="2:9">
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53" s="9">
+        <v>202</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="C54" s="9"/>
       <c r="D54" s="31"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="C55" s="36"/>
       <c r="D55" s="37"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
       <c r="G55" s="16" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="3:9">
-      <c r="C56" s="9" t="s">
-        <v>339</v>
+    <row r="56" spans="2:9">
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56" s="9">
+        <v>302</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="3:9">
+    <row r="57" spans="2:9">
       <c r="C57" s="9"/>
       <c r="D57" s="31"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="C58" s="36"/>
       <c r="D58" s="37"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
       <c r="G58" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="3:9">
-      <c r="C59" s="9" t="s">
-        <v>338</v>
+    <row r="59" spans="2:9">
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59" s="9">
+        <v>203</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="C60" s="9"/>
       <c r="D60" s="31"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="C61" s="36"/>
       <c r="D61" s="37"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="16" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="3:9">
-      <c r="C62" s="9" t="s">
-        <v>334</v>
+    <row r="62" spans="2:9">
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" s="9">
+        <v>105</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="C63" s="9"/>
       <c r="D63" s="31"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="C64" s="36"/>
       <c r="D64" s="37"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
       <c r="G64" s="16" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="3:9">
-      <c r="C65" s="9" t="s">
-        <v>340</v>
+    <row r="65" spans="2:9">
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65" s="9">
+        <v>303</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="66" spans="3:9">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="C66" s="9"/>
       <c r="D66" s="31"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="16" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="3:9">
+    <row r="68" spans="2:9">
+      <c r="B68">
+        <v>9</v>
+      </c>
       <c r="C68" s="9" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="69" spans="3:9">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="G70" s="16" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="3:9">
+    <row r="71" spans="2:9">
+      <c r="B71">
+        <v>10</v>
+      </c>
       <c r="C71" s="9" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
       <c r="C73" s="36"/>
       <c r="D73" s="36"/>
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="16" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="3:9">
+    <row r="74" spans="2:9">
+      <c r="B74">
+        <v>11</v>
+      </c>
       <c r="C74" s="9" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="75" spans="3:9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="C75" s="9"/>
       <c r="D75" s="31"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="76" spans="3:9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="C76" s="36"/>
       <c r="D76" s="37"/>
       <c r="E76" s="36"/>
       <c r="F76" s="36"/>
       <c r="G76" s="16" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="3:9">
+    <row r="77" spans="2:9">
+      <c r="B77">
+        <v>12</v>
+      </c>
       <c r="C77" s="9" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="78" spans="3:9">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="3:9">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="G79" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="80" spans="3:9">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="C80" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="3:4">
       <c r="C81" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="3:4">
       <c r="C82" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="3:4">
       <c r="C83" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="3:4">
       <c r="C85" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="3:4">
       <c r="C86" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="3:4">
       <c r="C87" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="3:4">
       <c r="C88" t="s">
-        <v>306</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="3:4">
       <c r="C90" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4236,197 +4152,197 @@
   <sheetData>
     <row r="3" spans="2:5" ht="23">
       <c r="B3" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E5" s="46"/>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>263</v>
-      </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" s="48" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" s="48" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="47" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="47" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="47" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="47" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="47" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="47" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zivasmac21/Documents/GitHub/PlumMiniGame/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F40B0E3-B142-124B-AFCB-16DBC1F36DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF09F7EB-951A-4D4D-98DF-691A52BCCD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15760" windowHeight="17400" firstSheet="1" activeTab="6" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="7. 캐릭터" sheetId="9" r:id="rId7"/>
     <sheet name="8. 사운드 요소" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -223,10 +223,6 @@
   </si>
   <si>
     <t>3) 처음 제공되는 가구는 창문, 카페트, 벽지, 바닥재이며, 상점에서 구매 후 추가 가능한 가구는 선반, 침대, 꽃병, 전등, 식탁, 장식(선반위), 음식(식탁위)이 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽지, 바닥재, 창문, 카페트, 선반, 침대, 꽃병, 전등, 식탁, 장식, 음식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -694,10 +690,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>벽지, 바닥재, 침대, 카페트, 옷장, 벽걸이 선반, 장식(벽걸이 선반 장식), 전등, 꽃병</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5) 상점 역시 1층 가구와 2층 가구로 나뉘어져 있으며, 방확장 이전에는 1층 가구 카테고리만 OPEN 된다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -722,10 +714,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>책상&amp;의자 SET, 음식, 잔디, 하늘, 나무, 정원 장식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1층 창고</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1503,6 +1491,18 @@
   </si>
   <si>
     <t>4) 도감태블릿 아래에 등급/대표캐릭터설정유무/대표캐릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블, 음식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[식탁, 의자], 침대, 옷장, 카펫, 화분, 창문, 시계, 벽걸이 선반, 벽지, 바닥재, 꾸미기1, 꾸미기2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽지, 바닥재, [식탁, 의자]묶음, 옷장, 창문, 카페트, 선반, 침대, 꾸미기1, 꾸미기2, 테이블, 음식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1510,7 +1510,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2262,9 +2262,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="8" spans="3:13" ht="23">
+    <row r="8" spans="3:13" ht="25.2" x14ac:dyDescent="0.45">
       <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
@@ -2272,21 +2272,21 @@
         <v>29</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" ht="23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="25.2" x14ac:dyDescent="0.45">
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
@@ -2294,10 +2294,10 @@
         <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2305,42 +2305,42 @@
         <v>32</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:13">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
       <c r="G16" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2357,155 +2357,155 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="23">
+    <row r="3" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="2:2" ht="23">
+    <row r="9" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="C24" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="49" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" s="49" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C32" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B33" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" s="1"/>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
@@ -2518,74 +2518,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
   <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="78" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="2:11" ht="23">
+    <row r="5" spans="2:11" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" s="16" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -2593,12 +2593,12 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="2:12" ht="19" thickBot="1">
+    <row r="18" spans="2:12" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -2608,13 +2608,13 @@
         <v>36</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="2:12" ht="19" thickTop="1">
+    <row r="19" spans="2:12" ht="19.8" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B19" s="23" t="s">
         <v>40</v>
       </c>
@@ -2626,49 +2626,49 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C29" s="22" t="s">
         <v>42</v>
       </c>
@@ -2681,84 +2681,84 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C46" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="D46" t="s">
+        <v>326</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2766,12 +2766,12 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C47" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>132</v>
+        <v>325</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -2779,14 +2779,14 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2803,140 +2803,140 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="B3" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="23">
-      <c r="B3" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="28" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
         <v>78</v>
       </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="28" t="s">
+      <c r="C17" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" s="12"/>
     </row>
   </sheetData>
@@ -2953,51 +2953,51 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:3" ht="23">
+    <row r="3" spans="2:3" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:3" ht="19" thickBot="1">
+    <row r="11" spans="2:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>3</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3045,22 +3045,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
@@ -3072,7 +3072,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
@@ -3084,63 +3084,63 @@
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="19"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="19" thickBot="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
@@ -3148,46 +3148,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B34" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C36" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="2" t="s">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="C36" s="43" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="C37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="C38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="18"/>
@@ -3195,12 +3195,12 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C40" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -3222,91 +3222,91 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:4" ht="23">
+    <row r="3" spans="2:4" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="28" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3319,149 +3319,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C60" zoomScale="117" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="C44" zoomScale="117" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:8" ht="23">
+    <row r="3" spans="2:8" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="1" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C33" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E33">
         <v>573</v>
       </c>
       <c r="F33" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C34" s="16"/>
       <c r="D34" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G34" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="H34" s="40" t="s">
-        <v>188</v>
-      </c>
       <c r="I34" s="40" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>1</v>
       </c>
@@ -3469,43 +3469,43 @@
         <v>101</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C36" s="9"/>
       <c r="D36" s="31"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C37" s="36"/>
       <c r="D37" s="37"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36"/>
       <c r="G37" s="41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H37" s="41"/>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>2</v>
       </c>
@@ -3513,43 +3513,43 @@
         <v>102</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F38" s="38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H38" s="42"/>
       <c r="I38" s="38"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C39" s="9"/>
       <c r="D39" s="31"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C40" s="36"/>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
       <c r="G40" s="41" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H40" s="41"/>
       <c r="I40" s="36"/>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>3</v>
       </c>
@@ -3557,43 +3557,43 @@
         <v>103</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
       <c r="F43" s="36"/>
       <c r="G43" s="41" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H43" s="41"/>
       <c r="I43" s="36"/>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>4</v>
       </c>
@@ -3601,43 +3601,43 @@
         <v>104</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C45" s="9"/>
       <c r="D45" s="31"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C46" s="36"/>
       <c r="D46" s="37"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36"/>
       <c r="G46" s="41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H46" s="41"/>
       <c r="I46" s="36"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B47">
         <v>13</v>
       </c>
@@ -3645,43 +3645,43 @@
         <v>301</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C48" s="9"/>
       <c r="D48" s="31"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C49" s="36"/>
       <c r="D49" s="37"/>
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
       <c r="G49" s="41" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H49" s="41"/>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B50">
         <v>6</v>
       </c>
@@ -3689,41 +3689,41 @@
         <v>201</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C51" s="9"/>
       <c r="D51" s="31"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C52" s="36"/>
       <c r="D52" s="37"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
       <c r="G52" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H52" s="41"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B53">
         <v>7</v>
       </c>
@@ -3731,39 +3731,39 @@
         <v>202</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C54" s="9"/>
       <c r="D54" s="31"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C55" s="36"/>
       <c r="D55" s="37"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
       <c r="G55" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H55" s="16"/>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>14</v>
       </c>
@@ -3771,40 +3771,40 @@
         <v>302</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C57" s="9"/>
       <c r="D57" s="31"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C58" s="36"/>
       <c r="D58" s="37"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
       <c r="G58" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H58" s="16"/>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>8</v>
       </c>
@@ -3812,39 +3812,39 @@
         <v>203</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C60" s="9"/>
       <c r="D60" s="31"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C61" s="36"/>
       <c r="D61" s="37"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H61" s="16"/>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>5</v>
       </c>
@@ -3852,39 +3852,39 @@
         <v>105</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C63" s="9"/>
       <c r="D63" s="31"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C64" s="36"/>
       <c r="D64" s="37"/>
       <c r="E64" s="36"/>
       <c r="F64" s="36"/>
       <c r="G64" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H64" s="16"/>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>15</v>
       </c>
@@ -3892,246 +3892,246 @@
         <v>303</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C66" s="9"/>
       <c r="D66" s="31"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H67" s="16"/>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>9</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C70" s="36"/>
       <c r="D70" s="36"/>
       <c r="E70" s="36"/>
       <c r="F70" s="36"/>
       <c r="G70" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H70" s="16"/>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>10</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C73" s="36"/>
       <c r="D73" s="36"/>
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
       <c r="G73" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>11</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C75" s="9"/>
       <c r="D75" s="31"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
       <c r="G75" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C76" s="36"/>
       <c r="D76" s="37"/>
       <c r="E76" s="36"/>
       <c r="F76" s="36"/>
       <c r="G76" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>12</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9"/>
       <c r="G78" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
       <c r="G79" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C80" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C82" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C83" s="28" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" s="28" t="s">
+      <c r="D83" t="s">
         <v>229</v>
       </c>
-      <c r="D82" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="D83" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4">
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C85" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C87" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C88" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C89" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C90" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4148,201 +4148,201 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="23">
+    <row r="3" spans="2:5" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1" t="s">
+      <c r="D5" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="45" t="s">
+      <c r="D6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C7" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="D6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="C7" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>267</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="C9" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C10" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
+      <c r="D10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C11" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="C10" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="C11" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="40" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="40" t="s">
-        <v>279</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="47" t="s">
+      <c r="F18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="47" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" t="s">
-        <v>297</v>
-      </c>
-      <c r="F18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="47" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="47" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="47" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="47" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
+      <c r="D25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="D22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="47" t="s">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
-      <c r="B25" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>284</v>
       </c>
-      <c r="D25" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="47" t="s">
+      <c r="D30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="47" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="47" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="D30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="47" t="s">
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="47" t="s">
+      <c r="D35" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="47" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="47" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>291</v>
-      </c>
-      <c r="D35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="47" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baeksujin/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF09F7EB-951A-4D4D-98DF-691A52BCCD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF00943-BE9D-7941-A05D-8C3449C51A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="12800" yWindow="760" windowWidth="17440" windowHeight="18880" firstSheet="1" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -22,17 +22,28 @@
     <sheet name="7. 캐릭터" sheetId="9" r:id="rId7"/>
     <sheet name="8. 사운드 요소" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="337">
   <si>
     <t>요소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1098,22 +1109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전제1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>능력치가 발동하는 게임이 해금 상태여야 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전제2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터가 능력치가 발동하는 게임을 해당 캐릭터로 진행하여야 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>참참참, 곰먹이 게임 점수 환산 재화 각 +10%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1503,6 +1498,58 @@
   </si>
   <si>
     <t>벽지, 바닥재, [식탁, 의자]묶음, 옷장, 창문, 카페트, 선반, 침대, 꾸미기1, 꾸미기2, 테이블, 음식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전제 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 뽑기 상점에서 해당 캐릭터 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전제 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터능력 패시브 버프가 발동하는 게임 해금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 플레이 가능한 게임 캐릭터는 101,102,103 세마리며, 나머지 캐릭터들은 플레이에 직접 관여를 하지는 못한다. 그러나 캐릭터 획득 시 능력치가 패시브로 발동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 대표 캐릭터 설정 버튼은 플레이어블 캐릭터인 101,102,103 뿐이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 로딩씬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로딩 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 가구를 사 마이룸을 꾸밀 수 있어요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출할 문구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 : 로딩 막대기 바로 위 위치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1510,7 +1557,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1569,7 +1616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1585,6 +1632,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,7 +1844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1940,6 +1993,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2262,9 +2321,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="8" spans="3:13" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:13" ht="23">
       <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
@@ -2275,7 +2334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13">
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2286,7 +2345,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" ht="23">
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
@@ -2297,7 +2356,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:13">
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2308,7 +2367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:13">
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2316,7 +2375,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:13">
       <c r="C13" s="1" t="s">
         <v>195</v>
       </c>
@@ -2324,7 +2383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:13">
       <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2332,13 +2391,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:13">
       <c r="C15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:13">
       <c r="G16" s="1" t="s">
         <v>128</v>
       </c>
@@ -2351,161 +2410,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
-  <dimension ref="B3:C47"/>
+  <dimension ref="B3:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" ht="23">
       <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" ht="23">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" ht="23">
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3">
       <c r="B31" s="49" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C31" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" s="49" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C32" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
@@ -2518,23 +2600,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
   <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="78" workbookViewId="0">
+    <sheetView zoomScale="109" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="5" spans="2:11" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" ht="23">
       <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -2548,42 +2630,42 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:11">
       <c r="B11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11">
       <c r="B12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11">
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:11">
       <c r="B16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12">
       <c r="B17" s="16" t="s">
         <v>55</v>
       </c>
@@ -2593,7 +2675,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="2:12" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="19" thickBot="1">
       <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
@@ -2614,7 +2696,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="2:12" ht="19.8" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="19" thickTop="1">
       <c r="B19" s="23" t="s">
         <v>40</v>
       </c>
@@ -2626,49 +2708,49 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12">
       <c r="B21" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12">
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12">
       <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12">
       <c r="C29" s="22" t="s">
         <v>42</v>
       </c>
@@ -2681,84 +2763,84 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:12">
       <c r="C30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:12">
       <c r="C31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:12">
       <c r="C32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9">
       <c r="C33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9">
       <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9">
       <c r="C36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9">
       <c r="C37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9">
       <c r="B40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9">
       <c r="B41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9">
       <c r="B42" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9">
       <c r="B43" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9">
       <c r="B44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9">
       <c r="C46" s="33" t="s">
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2766,12 +2848,12 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9">
       <c r="C47" s="32" t="s">
         <v>131</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -2779,12 +2861,12 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>129</v>
       </c>
@@ -2803,39 +2885,39 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3">
       <c r="B9" s="28" t="s">
         <v>75</v>
       </c>
@@ -2843,7 +2925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3">
       <c r="B10" s="28" t="s">
         <v>77</v>
       </c>
@@ -2851,12 +2933,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3">
       <c r="B13" s="28" t="s">
         <v>79</v>
       </c>
@@ -2864,18 +2946,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3">
       <c r="B17" s="28" t="s">
         <v>83</v>
       </c>
@@ -2883,7 +2965,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
         <v>84</v>
       </c>
@@ -2891,7 +2973,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3">
       <c r="B19" s="28" t="s">
         <v>85</v>
       </c>
@@ -2899,7 +2981,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="B20" s="28" t="s">
         <v>87</v>
       </c>
@@ -2907,7 +2989,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3">
       <c r="B21" s="28" t="s">
         <v>90</v>
       </c>
@@ -2915,7 +2997,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="B22" s="28" t="s">
         <v>91</v>
       </c>
@@ -2923,20 +3005,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3">
       <c r="B23" s="28" t="s">
         <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3">
       <c r="B26" s="12"/>
     </row>
   </sheetData>
@@ -2953,51 +3035,51 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:3" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:3" ht="19" thickBot="1">
       <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3">
       <c r="B12" s="4">
         <v>3</v>
       </c>
@@ -3013,7 +3095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -3021,7 +3103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:3">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -3029,7 +3111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -3037,7 +3119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3045,22 +3127,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7">
       <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7">
       <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
@@ -3072,7 +3154,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7">
       <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
@@ -3084,7 +3166,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7">
       <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
@@ -3096,7 +3178,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7">
       <c r="B24" s="22" t="s">
         <v>107</v>
       </c>
@@ -3108,7 +3190,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7">
       <c r="B25" s="30" t="s">
         <v>108</v>
       </c>
@@ -3120,27 +3202,27 @@
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7">
       <c r="B27" s="31" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7">
       <c r="B28" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7">
       <c r="B29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7">
       <c r="B31" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:7" ht="19" thickBot="1">
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
@@ -3148,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9">
       <c r="B33" s="4" t="s">
         <v>198</v>
       </c>
@@ -3156,7 +3238,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9">
       <c r="B34" s="2" t="s">
         <v>199</v>
       </c>
@@ -3164,22 +3246,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9">
       <c r="C36" s="43" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9">
       <c r="C37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9">
       <c r="C38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>8</v>
       </c>
@@ -3195,7 +3277,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9">
       <c r="C40" s="22" t="s">
         <v>205</v>
       </c>
@@ -3222,25 +3304,25 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:4" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" ht="23">
       <c r="B3" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4">
       <c r="B6" s="28" t="s">
         <v>135</v>
       </c>
@@ -3248,12 +3330,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4">
       <c r="B8" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4">
       <c r="B9" s="28" t="s">
         <v>137</v>
       </c>
@@ -3261,12 +3343,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4">
       <c r="B12" s="28" t="s">
         <v>140</v>
       </c>
@@ -3274,12 +3356,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4">
       <c r="B14" s="35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4">
       <c r="B15" s="28" t="s">
         <v>144</v>
       </c>
@@ -3287,16 +3369,16 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
         <v>145</v>
       </c>
@@ -3304,9 +3386,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3317,30 +3399,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
-  <dimension ref="B3:I90"/>
+  <dimension ref="B3:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="C44" zoomScale="117" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="B57" zoomScale="125" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:8" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="23">
       <c r="B3" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
         <v>125</v>
       </c>
@@ -3348,7 +3430,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:8">
       <c r="B7" s="22" t="s">
         <v>126</v>
       </c>
@@ -3363,7 +3445,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:8">
       <c r="B8" s="22" t="s">
         <v>152</v>
       </c>
@@ -3378,761 +3460,791 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:8">
       <c r="B9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:8">
       <c r="B13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="D21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21">
+        <v>573</v>
+      </c>
+      <c r="G21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="D22" s="16"/>
+      <c r="E22" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="9">
+        <v>101</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="D24" s="9"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="41"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="38">
+        <v>102</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="38"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="D27" s="9"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C33" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E33">
-        <v>573</v>
-      </c>
-      <c r="F33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C34" s="16"/>
-      <c r="D34" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9">
-        <v>101</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>159</v>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>328</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9">
+        <v>103</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="I31" s="41"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" s="9">
+        <v>104</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="D33" s="9"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="I34" s="41"/>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35" s="9">
+        <v>301</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>219</v>
       </c>
       <c r="F35" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="D36" s="9"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="36"/>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" s="9">
+        <v>201</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="3:10">
+      <c r="D39" s="9"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I40" s="41"/>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" s="9">
+        <v>202</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="D42" s="9"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44" s="9">
+        <v>302</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="D45" s="9"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+    </row>
+    <row r="47" spans="3:10">
+      <c r="C47">
+        <v>8</v>
+      </c>
+      <c r="D47" s="9">
+        <v>203</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="D48" s="9"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="D49" s="36"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50" s="9">
+        <v>105</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C36" s="9"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="12" t="s">
+      <c r="H50" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="D51" s="9"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C37" s="36"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="36"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" s="38">
-        <v>102</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="H38" s="42"/>
-      <c r="I38" s="38"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C39" s="9"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="36"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41" s="9">
-        <v>103</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="36"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" s="9">
-        <v>104</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C45" s="9"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C46" s="36"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="36"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B47">
-        <v>13</v>
-      </c>
-      <c r="C47" s="9">
-        <v>301</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F47" s="9" t="s">
+    </row>
+    <row r="52" spans="3:10">
+      <c r="D52" s="36"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53" s="9">
+        <v>303</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G47" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C48" s="9"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C49" s="36"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="41" t="s">
-        <v>236</v>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="36"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B50">
-        <v>6</v>
-      </c>
-      <c r="C50" s="9">
-        <v>201</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C51" s="9"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C52" s="36"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="16"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B53">
-        <v>7</v>
-      </c>
-      <c r="C53" s="9">
-        <v>202</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C54" s="9"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="9"/>
+      <c r="H53" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="D54" s="9"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="9"/>
-      <c r="G54" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
+      <c r="G54" s="9"/>
+      <c r="H54" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="D55" s="36"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="36"/>
+      <c r="H55" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="H55" s="16"/>
       <c r="I55" s="16"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B56">
-        <v>14</v>
-      </c>
-      <c r="C56" s="9">
-        <v>302</v>
-      </c>
-      <c r="D56" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>168</v>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>188</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C57" s="9"/>
-      <c r="D57" s="31"/>
+        <v>187</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C58" s="36"/>
-      <c r="D58" s="37"/>
+      <c r="G57" s="9"/>
+      <c r="H57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="D58" s="36"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
-      <c r="G58" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="H58" s="16"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="16" t="s">
+        <v>302</v>
+      </c>
       <c r="I58" s="16"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B59">
-        <v>8</v>
-      </c>
-      <c r="C59" s="9">
-        <v>203</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>169</v>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E59" s="31" t="s">
+        <v>217</v>
       </c>
       <c r="F59" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G59" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C60" s="9"/>
-      <c r="D60" s="31"/>
+      <c r="H59" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C61" s="36"/>
-      <c r="D61" s="37"/>
+      <c r="G60" s="9"/>
+      <c r="H60" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="D61" s="36"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
-      <c r="G61" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="H61" s="16"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="16" t="s">
+        <v>303</v>
+      </c>
       <c r="I61" s="16"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="C62" s="9">
-        <v>105</v>
-      </c>
-      <c r="D62" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>170</v>
+      <c r="J61" s="16"/>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="C62">
+        <v>11</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>218</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C63" s="9"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="9"/>
+        <v>194</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="D63" s="9"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C64" s="36"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="36"/>
+      <c r="G63" s="9"/>
+      <c r="H63" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
       <c r="F64" s="36"/>
-      <c r="G64" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="H64" s="16"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="I64" s="16"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B65">
-        <v>15</v>
-      </c>
-      <c r="C65" s="9">
-        <v>303</v>
-      </c>
-      <c r="D65" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>186</v>
+      <c r="J64" s="16"/>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65">
+        <v>12</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>292</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C66" s="9"/>
-      <c r="D66" s="31"/>
+        <v>213</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B68">
-        <v>9</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-      <c r="G70" s="16" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="H67" t="s">
         <v>306</v>
       </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B71">
-        <v>10</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B74">
-        <v>11</v>
-      </c>
-      <c r="C74" s="9" t="s">
+    </row>
+    <row r="68" spans="3:8">
+      <c r="D68" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="D69" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="D70" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E70" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="D71" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="E71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8">
+      <c r="D72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="3:8">
+      <c r="D74" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="D75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="D76" t="s">
         <v>319</v>
       </c>
-      <c r="D74" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C75" s="9"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C76" s="36"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B77">
-        <v>12</v>
-      </c>
-      <c r="C77" s="9" t="s">
+    </row>
+    <row r="77" spans="3:8">
+      <c r="D77" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="D78" t="s">
         <v>320</v>
       </c>
-      <c r="D77" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="G77" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="G79" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C80" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C81" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C82" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="D82" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C83" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C85" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C86" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C87" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C88" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C89" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C90" t="s">
-        <v>316</v>
-      </c>
+    </row>
+    <row r="79" spans="3:8">
+      <c r="D79" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8">
+      <c r="D80" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="F86">
+        <f>+F87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="C91" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4148,201 +4260,201 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" ht="23">
       <c r="B3" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="45" t="s">
+      <c r="D6" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="30" t="s">
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="D7" t="s">
         <v>258</v>
       </c>
-      <c r="D6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C7" s="48" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D10" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="2:5">
+      <c r="C11" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" t="s">
         <v>267</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="40" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C10" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C11" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="40" t="s">
-        <v>276</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="47" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="47" t="s">
         <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="47" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="47" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="47" t="s">
+      <c r="D25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="47" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
         <v>279</v>
       </c>
-      <c r="D22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="47" t="s">
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
+      <c r="D30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="D25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="47" t="s">
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="47" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" s="47" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
         <v>284</v>
       </c>
-      <c r="D30" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="47" t="s">
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="47" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="47" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="47" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>288</v>
-      </c>
-      <c r="D35" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="47" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baeksujin/Documents/GitHub/PlumMiniGame/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF00943-BE9D-7941-A05D-8C3449C51A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7CFAF1-5DF6-40CD-8237-CDC1DD76BF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="760" windowWidth="17440" windowHeight="18880" firstSheet="1" activeTab="1" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -22,21 +22,10 @@
     <sheet name="7. 캐릭터" sheetId="9" r:id="rId7"/>
     <sheet name="8. 사운드 요소" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1489,10 +1478,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>테이블, 음식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[식탁, 의자], 침대, 옷장, 카펫, 화분, 창문, 시계, 벽걸이 선반, 벽지, 바닥재, 꾸미기1, 꾸미기2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1550,6 +1535,10 @@
   </si>
   <si>
     <t>위치 : 로딩 막대기 바로 위 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블, 음식, 시소</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1557,7 +1546,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2321,9 +2310,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="8" spans="3:13" ht="23">
+    <row r="8" spans="3:13" ht="25.2" x14ac:dyDescent="0.45">
       <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
@@ -2334,7 +2323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="3:13">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2345,7 +2334,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="23">
+    <row r="10" spans="3:13" ht="25.2" x14ac:dyDescent="0.45">
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
@@ -2356,7 +2345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="3:13">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2367,7 +2356,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="3:13">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2375,7 +2364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="3:13">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>195</v>
       </c>
@@ -2383,7 +2372,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:13">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2391,13 +2380,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="3:13">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="3:13">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
       <c r="G16" s="1" t="s">
         <v>128</v>
       </c>
@@ -2412,132 +2401,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A26" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="23">
+    <row r="3" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="23">
+    <row r="8" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="2:2" ht="23">
+    <row r="9" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B31" s="49" t="s">
         <v>310</v>
       </c>
@@ -2545,7 +2534,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B32" s="49" t="s">
         <v>308</v>
       </c>
@@ -2553,7 +2542,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="49" t="s">
         <v>21</v>
       </c>
@@ -2561,33 +2550,33 @@
         <v>311</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="D37" s="16" t="s">
         <v>335</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>336</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C38" t="s">
         <v>332</v>
       </c>
-      <c r="C38" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
@@ -2600,23 +2589,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
   <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView zoomScale="109" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="2:11" ht="23">
+    <row r="5" spans="2:11" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -2630,42 +2619,42 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="16" t="s">
         <v>55</v>
       </c>
@@ -2675,7 +2664,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="2:12" ht="19" thickBot="1">
+    <row r="18" spans="2:12" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
@@ -2696,7 +2685,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="2:12" ht="19" thickTop="1">
+    <row r="19" spans="2:12" ht="19.8" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B19" s="23" t="s">
         <v>40</v>
       </c>
@@ -2708,49 +2697,49 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C29" s="22" t="s">
         <v>42</v>
       </c>
@@ -2763,84 +2752,84 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B43" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B44" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C46" s="33" t="s">
         <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2848,12 +2837,12 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C47" s="32" t="s">
         <v>131</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -2861,12 +2850,12 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>129</v>
       </c>
@@ -2885,39 +2874,39 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="23">
+    <row r="3" spans="2:3" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="28" t="s">
         <v>75</v>
       </c>
@@ -2925,7 +2914,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="28" t="s">
         <v>77</v>
       </c>
@@ -2933,12 +2922,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="28" t="s">
         <v>79</v>
       </c>
@@ -2946,18 +2935,18 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="28" t="s">
         <v>83</v>
       </c>
@@ -2965,7 +2954,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
         <v>84</v>
       </c>
@@ -2973,7 +2962,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="28" t="s">
         <v>85</v>
       </c>
@@ -2981,7 +2970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="28" t="s">
         <v>87</v>
       </c>
@@ -2989,7 +2978,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B21" s="28" t="s">
         <v>90</v>
       </c>
@@ -2997,7 +2986,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" s="28" t="s">
         <v>91</v>
       </c>
@@ -3005,7 +2994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B23" s="28" t="s">
         <v>98</v>
       </c>
@@ -3013,12 +3002,12 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B24" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26" s="12"/>
     </row>
   </sheetData>
@@ -3035,51 +3024,51 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:3" ht="23">
+    <row r="3" spans="2:3" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:3" ht="19" thickBot="1">
+    <row r="11" spans="2:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4">
         <v>3</v>
       </c>
@@ -3095,7 +3084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -3103,7 +3092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -3111,7 +3100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -3119,7 +3108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3127,22 +3116,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
@@ -3154,7 +3143,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
@@ -3166,7 +3155,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
@@ -3178,7 +3167,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" s="22" t="s">
         <v>107</v>
       </c>
@@ -3190,7 +3179,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" s="30" t="s">
         <v>108</v>
       </c>
@@ -3202,27 +3191,27 @@
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" s="31" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="19" thickBot="1">
+    <row r="32" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
@@ -3230,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
         <v>198</v>
       </c>
@@ -3238,7 +3227,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>199</v>
       </c>
@@ -3246,22 +3235,22 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C36" s="43" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>8</v>
       </c>
@@ -3277,7 +3266,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
       <c r="C40" s="22" t="s">
         <v>205</v>
       </c>
@@ -3304,25 +3293,25 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:4" ht="23">
+    <row r="3" spans="2:4" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="28" t="s">
         <v>135</v>
       </c>
@@ -3330,12 +3319,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="28" t="s">
         <v>137</v>
       </c>
@@ -3343,12 +3332,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="28" t="s">
         <v>140</v>
       </c>
@@ -3356,12 +3345,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="28" t="s">
         <v>144</v>
       </c>
@@ -3369,16 +3358,16 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
         <v>145</v>
       </c>
@@ -3386,7 +3375,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>293</v>
       </c>
@@ -3405,24 +3394,24 @@
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:8" ht="23">
+    <row r="3" spans="2:8" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>125</v>
       </c>
@@ -3430,7 +3419,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="22" t="s">
         <v>126</v>
       </c>
@@ -3445,7 +3434,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="22" t="s">
         <v>152</v>
       </c>
@@ -3460,52 +3449,52 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>154</v>
@@ -3517,7 +3506,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D22" s="16"/>
       <c r="E22" s="40" t="s">
         <v>155</v>
@@ -3538,9 +3527,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3563,7 +3552,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D24" s="9"/>
       <c r="E24" s="31"/>
       <c r="F24" s="9"/>
@@ -3574,7 +3563,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D25" s="36"/>
       <c r="E25" s="37"/>
       <c r="F25" s="36"/>
@@ -3585,9 +3574,9 @@
       <c r="I25" s="41"/>
       <c r="J25" s="36"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -3610,7 +3599,7 @@
       <c r="I26" s="42"/>
       <c r="J26" s="38"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D27" s="9"/>
       <c r="E27" s="31"/>
       <c r="F27" s="9"/>
@@ -3621,7 +3610,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
@@ -3633,9 +3622,9 @@
       <c r="I28" s="41"/>
       <c r="J28" s="36"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -3658,7 +3647,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -3669,7 +3658,7 @@
       <c r="I30" s="12"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
@@ -3680,7 +3669,7 @@
       <c r="I31" s="41"/>
       <c r="J31" s="36"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
       <c r="C32">
         <v>4</v>
       </c>
@@ -3702,7 +3691,7 @@
       <c r="I32" s="12"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D33" s="9"/>
       <c r="E33" s="31"/>
       <c r="F33" s="9"/>
@@ -3713,7 +3702,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D34" s="36"/>
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
@@ -3724,7 +3713,7 @@
       <c r="I34" s="41"/>
       <c r="J34" s="36"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C35">
         <v>13</v>
       </c>
@@ -3746,7 +3735,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="3:10">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D36" s="9"/>
       <c r="E36" s="31"/>
       <c r="F36" s="9"/>
@@ -3757,7 +3746,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D37" s="36"/>
       <c r="E37" s="37"/>
       <c r="F37" s="36"/>
@@ -3768,7 +3757,7 @@
       <c r="I37" s="41"/>
       <c r="J37" s="36"/>
     </row>
-    <row r="38" spans="3:10">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C38">
         <v>6</v>
       </c>
@@ -3789,7 +3778,7 @@
       </c>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="3:10">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D39" s="9"/>
       <c r="E39" s="31"/>
       <c r="F39" s="9"/>
@@ -3799,7 +3788,7 @@
       </c>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="3:10">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D40" s="36"/>
       <c r="E40" s="37"/>
       <c r="F40" s="36"/>
@@ -3810,7 +3799,7 @@
       <c r="I40" s="41"/>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="3:10">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C41">
         <v>7</v>
       </c>
@@ -3830,7 +3819,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="3:10">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D42" s="9"/>
       <c r="E42" s="31"/>
       <c r="F42" s="9"/>
@@ -3839,7 +3828,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="3:10">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D43" s="36"/>
       <c r="E43" s="37"/>
       <c r="F43" s="36"/>
@@ -3850,7 +3839,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
     </row>
-    <row r="44" spans="3:10">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C44">
         <v>14</v>
       </c>
@@ -3871,7 +3860,7 @@
       </c>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="3:10">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D45" s="9"/>
       <c r="E45" s="31"/>
       <c r="F45" s="9"/>
@@ -3880,7 +3869,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="3:10">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D46" s="36"/>
       <c r="E46" s="37"/>
       <c r="F46" s="36"/>
@@ -3891,7 +3880,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="3:10">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C47">
         <v>8</v>
       </c>
@@ -3911,7 +3900,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="3:10">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D48" s="9"/>
       <c r="E48" s="31"/>
       <c r="F48" s="9"/>
@@ -3920,7 +3909,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="3:10">
+    <row r="49" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D49" s="36"/>
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
@@ -3931,7 +3920,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
     </row>
-    <row r="50" spans="3:10">
+    <row r="50" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C50">
         <v>5</v>
       </c>
@@ -3951,7 +3940,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="3:10">
+    <row r="51" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D51" s="9"/>
       <c r="E51" s="31"/>
       <c r="F51" s="9"/>
@@ -3960,7 +3949,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="3:10">
+    <row r="52" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D52" s="36"/>
       <c r="E52" s="37"/>
       <c r="F52" s="36"/>
@@ -3971,7 +3960,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
     </row>
-    <row r="53" spans="3:10">
+    <row r="53" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C53">
         <v>15</v>
       </c>
@@ -3991,7 +3980,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="3:10">
+    <row r="54" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D54" s="9"/>
       <c r="E54" s="31"/>
       <c r="F54" s="9"/>
@@ -4000,7 +3989,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="3:10">
+    <row r="55" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
@@ -4011,7 +4000,7 @@
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
     </row>
-    <row r="56" spans="3:10">
+    <row r="56" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C56">
         <v>9</v>
       </c>
@@ -4031,7 +4020,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="3:10">
+    <row r="57" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -4040,7 +4029,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="3:10">
+    <row r="58" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D58" s="36"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
@@ -4051,7 +4040,7 @@
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="3:10">
+    <row r="59" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C59">
         <v>10</v>
       </c>
@@ -4071,7 +4060,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="60" spans="3:10">
+    <row r="60" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -4080,7 +4069,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="3:10">
+    <row r="61" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
@@ -4091,7 +4080,7 @@
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
     </row>
-    <row r="62" spans="3:10">
+    <row r="62" spans="3:10" x14ac:dyDescent="0.45">
       <c r="C62">
         <v>11</v>
       </c>
@@ -4111,7 +4100,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="3:10">
+    <row r="63" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D63" s="9"/>
       <c r="E63" s="31"/>
       <c r="F63" s="9"/>
@@ -4120,7 +4109,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="3:10">
+    <row r="64" spans="3:10" x14ac:dyDescent="0.45">
       <c r="D64" s="36"/>
       <c r="E64" s="37"/>
       <c r="F64" s="36"/>
@@ -4131,7 +4120,7 @@
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="3:8">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.45">
       <c r="C65">
         <v>12</v>
       </c>
@@ -4151,7 +4140,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="66" spans="3:8">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -4160,90 +4149,90 @@
         <v>234</v>
       </c>
     </row>
-    <row r="67" spans="3:8">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.45">
       <c r="H67" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="68" spans="3:8">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D68" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="3:8">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D69" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="3:8">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D70" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="E70" t="s">
         <v>324</v>
       </c>
-      <c r="E70" t="s">
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="D71" s="28" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="71" spans="3:8">
-      <c r="D71" s="28" t="s">
+      <c r="E71" t="s">
         <v>326</v>
       </c>
-      <c r="E71" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8">
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D72" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="3:8">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D74" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="75" spans="3:8">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D75" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="76" spans="3:8">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D76" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="77" spans="3:8">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="3:8">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="79" spans="3:8">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D79" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="3:8">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.45">
       <c r="D80" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="3:6">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.45">
       <c r="F86">
         <f>+F87</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
     </row>
   </sheetData>
@@ -4260,19 +4249,19 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="23">
+    <row r="3" spans="2:5" ht="25.2" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="45" t="s">
         <v>255</v>
       </c>
@@ -4284,7 +4273,7 @@
       </c>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>252</v>
       </c>
@@ -4295,7 +4284,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C7" s="48" t="s">
         <v>257</v>
       </c>
@@ -4303,7 +4292,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
         <v>260</v>
@@ -4313,7 +4302,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>263</v>
       </c>
@@ -4324,7 +4313,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C10" s="48" t="s">
         <v>264</v>
       </c>
@@ -4332,7 +4321,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C11" s="48" t="s">
         <v>266</v>
       </c>
@@ -4340,22 +4329,22 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B16" s="40" t="s">
         <v>272</v>
       </c>
@@ -4364,12 +4353,12 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="47" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="47" t="s">
         <v>198</v>
       </c>
@@ -4380,17 +4369,17 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="47" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="47" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>275</v>
       </c>
@@ -4398,12 +4387,12 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="47" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>277</v>
       </c>
@@ -4411,17 +4400,17 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="47" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>280</v>
       </c>
@@ -4429,22 +4418,22 @@
         <v>288</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="47" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="47" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" s="47" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>284</v>
       </c>
@@ -4452,7 +4441,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" s="47" t="s">
         <v>285</v>
       </c>

--- a/Design/PlumMiniGame_백수진기획서.xlsx
+++ b/Design/PlumMiniGame_백수진기획서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumMiniGame\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baeksujin/Documents/GitHub/PlumMiniGame/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7CFAF1-5DF6-40CD-8237-CDC1DD76BF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A22B1-41C9-F946-A1DA-779605101C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="1" activeTab="3" xr2:uid="{8373BCA3-168B-F240-B0DA-30F794E8CD2B}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="6" r:id="rId1"/>
@@ -22,10 +22,21 @@
     <sheet name="7. 캐릭터" sheetId="9" r:id="rId7"/>
     <sheet name="8. 사운드 요소" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -451,18 +462,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>그리고 위에는 용사님이 가지고 있는 코인이 표시되어 있어요. 이 코인으로 상점에서 가구를 살 수 있답니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>e6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>용사님의 창고에 카페트와 창문 하나를 넣어놨으니 꾸미기를 눌러 확인해보세요!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>여기가 용사님과 동료들의 집이에요! 화면 아래의 상점에서 가구를 사고, 꾸미기를 터치해 가구를 꾸밀 수 있어요!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -504,10 +507,6 @@
   </si>
   <si>
     <t>1) 플레이어의 설정이 없는 경우 미니게임을 플레이하는 캐릭터는 플레이어가 가장 최근에 획득한 캐릭터로 진행된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플럼 월드의 친구들은 용사님의 도감에서 확인할 수 있답니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -604,11 +603,936 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음을 ON/OFF 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음을 ON/OFF 할 수 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 미니게임 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 캐릭터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 마이룸 캐릭터 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 미니게임 플레이 캐릭터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3 캐릭터 도감</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 미니게임 판정에 따라 게임이 끝나면 게임 오버 문구와 함께 게임이 종료된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 얻는 순서대로 배치 방식, 위치: 침대, 의자 : 15마리 7/8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층에 테라스, 가구, 카페 의자 책상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0 꾸미기 버튼 PUSH 후 메인화면 1번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 꾸미기 &gt; 플레이어가 본래 가지고 있는 가구를 선택하는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 플레이어가 꾸미기&gt; 창고 버튼을 누르는 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4 방 확장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 상점에 '방확장' 요소를 구입하면 2층이 오픈되며 마이룸 메인화면 왼쪽 상단에 2층으로 이동이 가능한 UI가 배치된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 상점 역시 1층 가구와 2층 가구로 나뉘어져 있으며, 방확장 이전에는 1층 가구 카테고리만 OPEN 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 얻는 순서대로 배치 방식이며, 지정 위치는 아래와 같다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1층 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 플레이어가 2층 구입 전 캐릭터 7마리를 달성하는 경우 '8마리부터는 방 확장 후 구입이 가능해요!' 의 문구가 언급된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5 2층 정원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 미니게임, 상점, 재화, 설정 버튼의 배치는 1층과 동일하며, 화면 왼쪽 상단에 1층으로 이동할 수 있는 Ui가 배치되어 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1층 창고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층 창고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 1층과 2층에 위치하는 창고 세부 품목은 아래 표를 참고한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 캐릭터 요소는 1층이 7마리, 2층에 8마리 배치가 가능하며, 2층을 구입하기 전에 캐릭터를 8마리 이상 구입할 수 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.0 점프벽 게임 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.1 판다 먹이 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다 놈들.. 또 남의 땅 와서 식량을 축내고 있구나… 얼마나 먹는지 보자..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.2 동굴 게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 미니게임별 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.3 참참참</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.4 스키게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구들이 판다동굴에서 노역을 하고 있다는 소문을 들었어. 어서 친구들을 구출하자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 일정 시간 몸짓? 호감도 시스템 : 캐릭터 플레이 많으면 호감도 up 일정 수준 능력 재화 획득? 저장 , 긍정적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다 성 안에 친구들이 갇혀있는 것 같아. 친구들아 내가 곧 구해줄게!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추억의 게임 참참참.. 대결에서 이겨 판다의 머리를 때리자!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈 덮인 산을 내려가며 친구들을 구출하자.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페트 위 1,2,3 -&gt; 꽃병 옆4 -&gt; 침대 위 5,6 -&gt; 선반 위 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>의자 1,2 -&gt; 나무 앞 3 -&gt; 장식 옆 4 -&gt; 식탁 앞 5,6,7,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.0 캐릭터별 세부사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지바</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프럼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샴고양이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코알라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캥거루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너구리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>북극곰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코끼리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무능력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호기심이 많다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프게임 점수 환산 재화 + 20%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>씩씩하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강하다. 싸움짱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게으르다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시끄럽다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내기를 좋아한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 특징</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 스토리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">친구들과 떠들다가 주위를 살피지 못해 너구리판다한테 납치됐다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 능력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코리안숏헤어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고슴도치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.0 미니게임 난이도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 게임오버 문구 노출이 완료되면, 점수판 ui가 노출된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 요소별 노출시간은 다음과 같다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임오버</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 점수판 첫 줄에는 해당게임의 최고기록, 아래에는 재화 정산과 점수가 차례대로 노출된다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 점수판 아래 UI 버튼 (한 번 더, 목록화면으로) 두가지가 존재한다. 해당 버튼을 누른 즉시 점수판이 소멸되며 다음과 같은 행동을 취한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.0 참고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 번 더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화와 점수를 저장 후, 해당 미니게임(같은 난이도)을 한 번 더 진행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화와 점수를 저장 후, 미니게임 목록화면으로 이동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 미니게임 세부 메인 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0 시작화면 공통요소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 설정버튼 (설정2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2 종료화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2.0 점수판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책오리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앙리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캥붕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참참참 게임 환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스키 게임 점수 환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰먹이 게임 점수 환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴탈출게임점수  환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴탈출게임 점수 환산 재화 + 10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 가지고 있는 캐릭터의 능력 발동은 다음 전제가 충족되었을 때 이행된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참참참, 곰먹이 게임 점수 환산 재화 각 +10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴탈출, 스키 게임 점수 환산 재화 각 +10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.1 게임 캐릭터 능력치 발동 사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람을 못 듣고 계속 자다가 E성향이 강한 판다에게 납치 됐다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 판다인 줄도 모르고, 어마어마한 금액을 두고 내기하다 져서 찍 소리도 못하고 대신 팔려갔다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동료들을 지키기위해 앞장서 플럼 월드를 지키다가 동료들의 배신으로 판다 행성에 갈 수 밖에 없는 상황이었다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다 행성에서 캥붕이가 싸움을 잘하는 걸 눈치채고 천문학적인 금액으로 스카웃 했다. 당시 조건 중 캥붕 가족의 미래 안정이 있었으나 판다 행성은 지키지 않았다. 캥붕 가족의 행방은 묘연하다..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴탈출, 스키 게임 점수 환산 재화 + 5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참참참, 곰먹이 게임 점수 환산 재화 + 5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 최초 동작 시에는 미니게임 3개(노말 2개, 하드1개) 가 열려 있고, 3개는 자물쇠로 닫힌 형식이며 일정 점수 이상 획득 후 오픈된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 미니게임 난이도는 노말과 하드, 두가지 난이도가 존재한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 최고기록의 저장은 난이도별로 따로 진행이 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 지향 프로그래밍 실력이 뛰어나다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 미니게임 첫 화면은 노말 난이도이며, 상단의 난이도 변경 UI를 PUSH하는 경우 난이도가 변경된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동방에서 '어…?' 하다가 판다에게 끌려갔다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호기심이 많지만 스스로 해결하려는 능력이 없다. 그래서 지나가는 사람을 붙잡고 궁금증을 해결한다. 어느 날 플루가 잡은 사람은 판다였고, 그 판다는 핑프를 싫어했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딘가 모자란 사랑꾼이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빠르다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>느리다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낯을 많이 가린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성격이 고약하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">항상 자기가 대장이어야 한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5 2층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 사운드 요소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.0 배경음악</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평화로움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부사용처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴박함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동굴 게임,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>판다 먹이 횟수 게임, 참참참</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평화-&gt;긴박</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프벽 게임, 스키 게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔잔함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무서움</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임 목차화면(HARD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신남</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 튜토리얼 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이룸 기본화면, 꾸미기 화면, 미니게임 목차 화면(NOMAL), 상점 화면, 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 효과음 1개(버튼 PUSH)로 통일한다. 예외 사항이 생길 경우 따로 표시한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임스타트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2 미니게임 세부 효과음 (1-2초 이내 사운드)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 구출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 점프벽 게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프사운드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 판다게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹는 효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 동굴 게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 참참참</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콤보 효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참참참 손</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿅망치 맞는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 스키게임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애물 파괴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1 버튼 효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//민재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//현지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최고기록 달성 시 사운드 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수판 정산 사운드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 상점 판다 랜덤 문구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3.2 도감 화면 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 오른 쪽 상단 '직전화면(마이룸)'으로 돌아갈 수 있는 ui가 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3) 캐릭터는 플레이어가 획득한 순서대로 1페이지 부터 15페이지 까지 채워진다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">금단의 사랑. 판다행성의 누군가를 좋아했다. 플럼 월드에서 유일하게 대책없이 판다행성에 갔다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코리와 달리기 시합중 본인의 스피드를 뽐내다 길을 헤매고 제발로 판다행성에 들어가게 됐다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코끼리와의 영역 싸움 도중을 노려 판다 종족이 치고 들어왔다. 코리는 너무 느려 저항하지 못하고 판다에게 끌려가게 된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당돌하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부기의 오해를 바로잡기 위해 부기를 찾아 나선다. 부기를 찾아 직접 오해를 풀고 마음을 전할거야!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낯을 가리는 탓에 낯선 동물과 함께 있으면 가시를 세우는 버릇이 있다. 이에 판다는 최첨단 무기 발명에 영감을 받아 해피를 거짓 계약서로 꼬드겨 판다행성에 데려간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느날과 같이 노름에 빠져 약속을 지키지 않은 이브에게 화를 내러 가던 도중 납치되는 이브를 목격한다. 이브를 구하러 판다행성에 잠입한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플럼 월드를 지키는 대장의 역할을 다하기 위해 끌려간 친구들을 구출하러 판다행성으로 간다. 알리의 공을 높게 사는듯 하다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책 읽는 것을 좋아한다. 시력이 안 좋다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>책을 좋아하는 부기는 안 좋은 시력 탓에 라식을 하게 되고 며칠간 앓아 눕는다. 그동안 옆에서 책을 읽어준 세리의 목소리를 판다로 오해하고 판다를 만나러 판다행성으로 간다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>on/off</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임이 완전히 종료된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경/효과음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정창을 끈다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 -&gt; 자세히 보기?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 건투를 빌게요! 저는 용사님이 우리 플럼월드의 친구들을 모두 구할 수 있을 거라 믿거든요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 플레이어의 대표 캐릭터로 설정된 캐릭터는 도감에서 '대표' 배치가 생기며, 미니게임 플레이를 진행한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 하단에 양 쪽 페이지 넘길 수 있는 버튼이 있다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4) 도감태블릿 아래에 등급/대표캐릭터설정유무/대표캐릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[식탁, 의자], 침대, 옷장, 카펫, 화분, 창문, 시계, 벽걸이 선반, 벽지, 바닥재, 꾸미기1, 꾸미기2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽지, 바닥재, [식탁, 의자]묶음, 옷장, 창문, 카페트, 선반, 침대, 꾸미기1, 꾸미기2, 테이블, 음식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전제 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 뽑기 상점에서 해당 캐릭터 획득</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전제 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터능력 패시브 버프가 발동하는 게임 해금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 플레이 가능한 게임 캐릭터는 101,102,103 세마리며, 나머지 캐릭터들은 플레이에 직접 관여를 하지는 못한다. 그러나 캐릭터 획득 시 능력치가 패시브로 발동한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5) 대표 캐릭터 설정 버튼은 플레이어블 캐릭터인 101,102,103 뿐이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3 로딩씬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로딩 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 가구를 사 마이룸을 꾸밀 수 있어요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노출할 문구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치 : 로딩 막대기 바로 위 위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블, 음식, 시소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에는 용사님이 가지고 있는 코인이 표시되어 있어요. 이 코인으로 상점에서 가구를 살 수 있답니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">코인은 미니게임에서 획득할 수 있어요. </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="12"/>
         <color theme="1"/>
@@ -617,928 +1541,50 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>코인으로 포로로 잡힌 친구들도 구출할 수 있어요.</t>
+      <t>코인으로 포로로 잡힌 친구들도 구출할 수 있고,</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과음을 ON/OFF 할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경음을 ON/OFF 할 수 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 미니게임 스토리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 캐릭터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1 마이룸 캐릭터 위치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.2 미니게임 플레이 캐릭터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3 캐릭터 도감</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 미니게임 판정에 따라 게임이 끝나면 게임 오버 문구와 함께 게임이 종료된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>// 얻는 순서대로 배치 방식, 위치: 침대, 의자 : 15마리 7/8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2층에 테라스, 가구, 카페 의자 책상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0 꾸미기 버튼 PUSH 후 메인화면 1번</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2 꾸미기 &gt; 플레이어가 본래 가지고 있는 가구를 선택하는 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3 플레이어가 꾸미기&gt; 창고 버튼을 누르는 경우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4 방 확장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 상점에 '방확장' 요소를 구입하면 2층이 오픈되며 마이룸 메인화면 왼쪽 상단에 2층으로 이동이 가능한 UI가 배치된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5) 상점 역시 1층 가구와 2층 가구로 나뉘어져 있으며, 방확장 이전에는 1층 가구 카테고리만 OPEN 된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 얻는 순서대로 배치 방식이며, 지정 위치는 아래와 같다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1층 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 플레이어가 2층 구입 전 캐릭터 7마리를 달성하는 경우 '8마리부터는 방 확장 후 구입이 가능해요!' 의 문구가 언급된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5 2층 정원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 미니게임, 상점, 재화, 설정 버튼의 배치는 1층과 동일하며, 화면 왼쪽 상단에 1층으로 이동할 수 있는 Ui가 배치되어 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1층 창고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2층 창고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4) 1층과 2층에 위치하는 창고 세부 품목은 아래 표를 참고한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 캐릭터 요소는 1층이 7마리, 2층에 8마리 배치가 가능하며, 2층을 구입하기 전에 캐릭터를 8마리 이상 구입할 수 없다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.0 점프벽 게임 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.1 판다 먹이 횟수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판다 놈들.. 또 남의 땅 와서 식량을 축내고 있구나… 얼마나 먹는지 보자..</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.2 동굴 게임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1 미니게임별 스토리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.3 참참참</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.4 스키게임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구들이 판다동굴에서 노역을 하고 있다는 소문을 들었어. 어서 친구들을 구출하자.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>// 일정 시간 몸짓? 호감도 시스템 : 캐릭터 플레이 많으면 호감도 up 일정 수준 능력 재화 획득? 저장 , 긍정적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판다 성 안에 친구들이 갇혀있는 것 같아. 친구들아 내가 곧 구해줄게!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추억의 게임 참참참.. 대결에서 이겨 판다의 머리를 때리자!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>눈 덮인 산을 내려가며 친구들을 구출하자.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페트 위 1,2,3 -&gt; 꽃병 옆4 -&gt; 침대 위 5,6 -&gt; 선반 위 7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2층</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의자 1,2 -&gt; 나무 앞 3 -&gt; 장식 옆 4 -&gt; 식탁 앞 5,6,7,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3.0 캐릭터별 세부사항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨셉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지바</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프럼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>샴고양이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쥐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코알라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캥거루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>너구리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>북극곰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강아지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토끼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코끼리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>common</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rare</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무능력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호기심이 많다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프게임 점수 환산 재화 + 20%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>씩씩하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강하다. 싸움짱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게으르다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시끄럽다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내기를 좋아한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 특징</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 스토리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">친구들과 떠들다가 주위를 살피지 못해 너구리판다한테 납치됐다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 능력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코리안숏헤어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고슴도치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해피</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.0 미니게임 난이도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 게임오버 문구 노출이 완료되면, 점수판 ui가 노출된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 요소별 노출시간은 다음과 같다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임오버</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1) 점수판 첫 줄에는 해당게임의 최고기록, 아래에는 재화 정산과 점수가 차례대로 노출된다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 점수판 아래 UI 버튼 (한 번 더, 목록화면으로) 두가지가 존재한다. 해당 버튼을 누른 즉시 점수판이 소멸되며 다음과 같은 행동을 취한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.0 참고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 번 더</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화와 점수를 저장 후, 해당 미니게임(같은 난이도)을 한 번 더 진행한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화와 점수를 저장 후, 미니게임 목록화면으로 이동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 미니게임 세부 메인 화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.0 시작화면 공통요소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1 설정버튼 (설정2)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2 종료화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2.0 점수판</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>책오리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플루</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>앙리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캥붕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참참참 게임 환산 재화 + 10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스키 게임 점수 환산 재화 + 10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>곰먹이 게임 점수 환산 재화 + 10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴탈출게임점수  환산 재화 + 10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴탈출게임 점수 환산 재화 + 10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 가지고 있는 캐릭터의 능력 발동은 다음 전제가 충족되었을 때 이행된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참참참, 곰먹이 게임 점수 환산 재화 각 +10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴탈출, 스키 게임 점수 환산 재화 각 +10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3.1 게임 캐릭터 능력치 발동 사항</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>알람을 못 듣고 계속 자다가 E성향이 강한 판다에게 납치 됐다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>누가 판다인 줄도 모르고, 어마어마한 금액을 두고 내기하다 져서 찍 소리도 못하고 대신 팔려갔다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동료들을 지키기위해 앞장서 플럼 월드를 지키다가 동료들의 배신으로 판다 행성에 갈 수 밖에 없는 상황이었다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판다 행성에서 캥붕이가 싸움을 잘하는 걸 눈치채고 천문학적인 금액으로 스카웃 했다. 당시 조건 중 캥붕 가족의 미래 안정이 있었으나 판다 행성은 지키지 않았다. 캥붕 가족의 행방은 묘연하다..</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등급수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴탈출, 스키 게임 점수 환산 재화 + 5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참참참, 곰먹이 게임 점수 환산 재화 + 5%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 최초 동작 시에는 미니게임 3개(노말 2개, 하드1개) 가 열려 있고, 3개는 자물쇠로 닫힌 형식이며 일정 점수 이상 획득 후 오픈된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 미니게임 난이도는 노말과 하드, 두가지 난이도가 존재한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 최고기록의 저장은 난이도별로 따로 진행이 된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>객체 지향 프로그래밍 실력이 뛰어나다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 미니게임 첫 화면은 노말 난이도이며, 상단의 난이도 변경 UI를 PUSH하는 경우 난이도가 변경된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동방에서 '어…?' 하다가 판다에게 끌려갔다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호기심이 많지만 스스로 해결하려는 능력이 없다. 그래서 지나가는 사람을 붙잡고 궁금증을 해결한다. 어느 날 플루가 잡은 사람은 판다였고, 그 판다는 핑프를 싫어했다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어딘가 모자란 사랑꾼이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠르다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>느리다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낯을 많이 가린다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성격이 고약하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">항상 자기가 대장이어야 한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5 2층</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 사운드 요소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.0 배경음악</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니게임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분위기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평화로움</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부사용처</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>긴박함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동굴 게임,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판다 먹이 횟수 게임, 참참참</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>평화-&gt;긴박</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프벽 게임, 스키 게임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잔잔함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무서움</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니게임 목차화면(HARD)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신남</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 튜토리얼 화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이룸 기본화면, 꾸미기 화면, 미니게임 목차 화면(NOMAL), 상점 화면, 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 효과음 1개(버튼 PUSH)로 통일한다. 예외 사항이 생길 경우 따로 표시한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임스타트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.2 미니게임 세부 효과음 (1-2초 이내 사운드)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 획득</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 구출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 점프벽 게임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프사운드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 판다게임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹는 효과음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3) 동굴 게임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4) 참참참</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>콤보 효과음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>참참참 손</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뿅망치 맞는</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5) 스키게임</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장애물 파괴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.1 버튼 효과음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//민재</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//현지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">최고기록 달성 시 사운드 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수판 정산 사운드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2 상점 판다 랜덤 문구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3.2 도감 화면 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1) 오른 쪽 상단 '직전화면(마이룸)'으로 돌아갈 수 있는 ui가 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3) 캐릭터는 플레이어가 획득한 순서대로 1페이지 부터 15페이지 까지 채워진다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">금단의 사랑. 판다행성의 누군가를 좋아했다. 플럼 월드에서 유일하게 대책없이 판다행성에 갔다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코리와 달리기 시합중 본인의 스피드를 뽐내다 길을 헤매고 제발로 판다행성에 들어가게 됐다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코끼리와의 영역 싸움 도중을 노려 판다 종족이 치고 들어왔다. 코리는 너무 느려 저항하지 못하고 판다에게 끌려가게 된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>당돌하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부기의 오해를 바로잡기 위해 부기를 찾아 나선다. 부기를 찾아 직접 오해를 풀고 마음을 전할거야!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>낯을 가리는 탓에 낯선 동물과 함께 있으면 가시를 세우는 버릇이 있다. 이에 판다는 최첨단 무기 발명에 영감을 받아 해피를 거짓 계약서로 꼬드겨 판다행성에 데려간다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어느날과 같이 노름에 빠져 약속을 지키지 않은 이브에게 화를 내러 가던 도중 납치되는 이브를 목격한다. 이브를 구하러 판다행성에 잠입한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플럼 월드를 지키는 대장의 역할을 다하기 위해 끌려간 친구들을 구출하러 판다행성으로 간다. 알리의 공을 높게 사는듯 하다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>책 읽는 것을 좋아한다. 시력이 안 좋다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>책을 좋아하는 부기는 안 좋은 시력 탓에 라식을 하게 되고 며칠간 앓아 눕는다. 그동안 옆에서 책을 읽어준 세리의 목소리를 판다로 오해하고 판다를 만나러 판다행성으로 간다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>on/off</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임종료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임이 완전히 종료된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경/효과음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정창을 끈다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토리 -&gt; 자세히 보기?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 건투를 빌게요! 저는 용사님이 우리 플럼월드의 친구들을 모두 구할 수 있을 거라 믿거든요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4) 플레이어의 대표 캐릭터로 설정된 캐릭터는 도감에서 '대표' 배치가 생기며, 미니게임 플레이를 진행한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 하단에 양 쪽 페이지 넘길 수 있는 버튼이 있다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4) 도감태블릿 아래에 등급/대표캐릭터설정유무/대표캐릭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[식탁, 의자], 침대, 옷장, 카펫, 화분, 창문, 시계, 벽걸이 선반, 벽지, 바닥재, 꾸미기1, 꾸미기2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽지, 바닥재, [식탁, 의자]묶음, 옷장, 창문, 카페트, 선반, 침대, 꾸미기1, 꾸미기2, 테이블, 음식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전제 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 뽑기 상점에서 해당 캐릭터 획득</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전제 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터능력 패시브 버프가 발동하는 게임 해금</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이 가능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2) 플레이 가능한 게임 캐릭터는 101,102,103 세마리며, 나머지 캐릭터들은 플레이에 직접 관여를 하지는 못한다. 그러나 캐릭터 획득 시 능력치가 패시브로 발동한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5) 대표 캐릭터 설정 버튼은 플레이어블 캐릭터인 101,102,103 뿐이다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3 로딩씬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로딩 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점에서 가구를 사 마이룸을 꾸밀 수 있어요!</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>씬 이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노출할 문구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>위치 : 로딩 막대기 바로 위 위치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블, 음식, 시소</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 친구들을 많이 구출할수록 코인이 쉽게 모아져요.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아! 지바, 이브, 프럼 동료는 처음부터 함께 활동이 가능해요! 미니게임을 함께 할 수 있는 친구는 이들뿐이에요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>마지막으로 구출한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 플럼 월드의 친구들은 용사님의 도감에서 확인할 수 있어요!</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1546,7 +1592,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1596,6 +1642,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -2310,9 +2357,9 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="8" spans="3:13" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:13" ht="23">
       <c r="C8" s="11" t="s">
         <v>25</v>
       </c>
@@ -2323,7 +2370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13">
       <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
@@ -2334,7 +2381,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" ht="23">
       <c r="C10" s="11" t="s">
         <v>26</v>
       </c>
@@ -2345,7 +2392,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:13">
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
@@ -2356,7 +2403,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:13">
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
@@ -2364,15 +2411,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:13">
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:13">
       <c r="C14" s="1" t="s">
         <v>57</v>
       </c>
@@ -2380,15 +2427,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:13">
       <c r="C15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
       <c r="G16" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2401,182 +2448,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9622D4-A6B2-C64B-B1A6-EB2D3826EA93}">
   <dimension ref="B3:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" ht="23">
       <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" ht="23">
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" ht="23">
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3">
       <c r="B28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3">
       <c r="B29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3">
       <c r="B31" s="49" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C31" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" s="49" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C32" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>334</v>
-      </c>
       <c r="D37" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6">
       <c r="B38" s="50" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C38" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="1"/>
     </row>
   </sheetData>
@@ -2589,23 +2636,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F1CBB0-469E-6645-9061-FD73181765A6}">
   <dimension ref="B5:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="109" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="136" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="5" spans="2:11" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" ht="23">
       <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -2619,42 +2666,42 @@
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:11">
       <c r="B8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:11">
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:11">
       <c r="B11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:11">
       <c r="B12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:11">
       <c r="B13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:11">
       <c r="B15" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:12">
       <c r="B17" s="16" t="s">
         <v>55</v>
       </c>
@@ -2664,7 +2711,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="2:12" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="19" thickBot="1">
       <c r="B18" s="25" t="s">
         <v>33</v>
       </c>
@@ -2685,7 +2732,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="2:12" ht="19.8" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:12" ht="19" thickTop="1">
       <c r="B19" s="23" t="s">
         <v>40</v>
       </c>
@@ -2697,49 +2744,49 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:12">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:12">
       <c r="B21" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:12">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:12">
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:12">
       <c r="C28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:12">
       <c r="C29" s="22" t="s">
         <v>42</v>
       </c>
@@ -2752,84 +2799,84 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:12">
       <c r="C30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:12">
       <c r="C31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:12">
       <c r="C32" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9">
       <c r="C33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9">
       <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9">
       <c r="C36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9">
       <c r="C37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9">
       <c r="B39" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9">
       <c r="B40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9">
       <c r="B43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
       <c r="C46" s="33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
@@ -2837,12 +2884,12 @@
       <c r="H46" s="20"/>
       <c r="I46" s="21"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9">
       <c r="C47" s="32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -2850,14 +2897,14 @@
       <c r="H47" s="16"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2868,45 +2915,45 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B90982-F20D-AF41-81F0-4A32B272D676}">
-  <dimension ref="B2:C26"/>
+  <dimension ref="B2:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="167" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="134" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3">
       <c r="B9" s="28" t="s">
         <v>75</v>
       </c>
@@ -2914,7 +2961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3">
       <c r="B10" s="28" t="s">
         <v>77</v>
       </c>
@@ -2922,12 +2969,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3">
       <c r="B12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3">
       <c r="B13" s="28" t="s">
         <v>79</v>
       </c>
@@ -2935,80 +2982,83 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3">
       <c r="B15" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3">
       <c r="B16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3">
       <c r="B17" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
         <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B21" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C21" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26" s="12"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="C32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3024,51 +3074,51 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:3" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3" ht="23">
       <c r="B3" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="2:3" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:3" ht="19" thickBot="1">
       <c r="B11" s="6" t="s">
         <v>0</v>
       </c>
@@ -3076,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:3">
       <c r="B12" s="4">
         <v>3</v>
       </c>
@@ -3084,7 +3134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:3">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -3092,7 +3142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:3">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -3100,7 +3150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
@@ -3108,7 +3158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3116,22 +3166,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7">
       <c r="B21" s="22" t="s">
         <v>19</v>
       </c>
@@ -3143,7 +3193,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7">
       <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
@@ -3155,7 +3205,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7">
       <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
@@ -3167,51 +3217,51 @@
       <c r="F23" s="16"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7">
       <c r="B24" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7">
       <c r="B25" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7">
       <c r="B27" s="31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
       <c r="B28" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
       <c r="B29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
       <c r="B31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="19.8" thickBot="1" x14ac:dyDescent="0.5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="19" thickBot="1">
       <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
@@ -3219,46 +3269,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9">
       <c r="B33" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="C36" s="43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="C37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="C38" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B34" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C36" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="C38" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="18"/>
@@ -3266,12 +3316,12 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9">
       <c r="C40" s="22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -3289,95 +3339,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF624540-7EAE-9D40-A1F4-261D478CFCF8}">
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:4" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:4" ht="23">
       <c r="B3" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="28" t="s">
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="35" t="s">
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="28" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="28" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
-        <v>144</v>
-      </c>
       <c r="C15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -3390,146 +3440,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C90386B-EC6A-5F46-9169-B58FB987675E}">
   <dimension ref="B3:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="B57" zoomScale="125" zoomScaleNormal="91" workbookViewId="0">
+    <sheetView topLeftCell="B17" zoomScale="125" zoomScaleNormal="91" workbookViewId="0">
       <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:8" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="23">
       <c r="B3" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
       <c r="B8" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F21">
         <v>573</v>
       </c>
       <c r="G21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="D22" s="16"/>
       <c r="E22" s="40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J22" s="40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3538,45 +3588,45 @@
         <v>101</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I23" s="12"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10">
       <c r="D24" s="9"/>
       <c r="E24" s="31"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10">
       <c r="D25" s="36"/>
       <c r="E25" s="37"/>
       <c r="F25" s="36"/>
       <c r="G25" s="36"/>
       <c r="H25" s="41" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I25" s="41"/>
       <c r="J25" s="36"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10">
       <c r="B26" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -3585,46 +3635,46 @@
         <v>102</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="38"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10">
       <c r="D27" s="9"/>
       <c r="E27" s="31"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10">
       <c r="B28" s="1"/>
       <c r="D28" s="36"/>
       <c r="E28" s="36"/>
       <c r="F28" s="36"/>
       <c r="G28" s="36"/>
       <c r="H28" s="41" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="36"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10">
       <c r="B29" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -3633,43 +3683,43 @@
         <v>103</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:10">
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10">
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
       <c r="H31" s="41" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I31" s="41"/>
       <c r="J31" s="36"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10">
       <c r="C32">
         <v>4</v>
       </c>
@@ -3677,43 +3727,43 @@
         <v>104</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:10">
       <c r="D33" s="9"/>
       <c r="E33" s="31"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:10">
       <c r="D34" s="36"/>
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
       <c r="H34" s="41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I34" s="41"/>
       <c r="J34" s="36"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:10">
       <c r="C35">
         <v>13</v>
       </c>
@@ -3721,43 +3771,43 @@
         <v>301</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:10">
       <c r="D36" s="9"/>
       <c r="E36" s="31"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I36" s="12"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:10">
       <c r="D37" s="36"/>
       <c r="E37" s="37"/>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
       <c r="H37" s="41" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I37" s="41"/>
       <c r="J37" s="36"/>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:10">
       <c r="C38">
         <v>6</v>
       </c>
@@ -3765,41 +3815,41 @@
         <v>201</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:10">
       <c r="D39" s="9"/>
       <c r="E39" s="31"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:10">
       <c r="D40" s="36"/>
       <c r="E40" s="37"/>
       <c r="F40" s="36"/>
       <c r="G40" s="36"/>
       <c r="H40" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I40" s="41"/>
       <c r="J40" s="16"/>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:10">
       <c r="C41">
         <v>7</v>
       </c>
@@ -3807,39 +3857,39 @@
         <v>202</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
       <c r="D42" s="9"/>
       <c r="E42" s="31"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.45">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
       <c r="D43" s="36"/>
       <c r="E43" s="37"/>
       <c r="F43" s="36"/>
       <c r="G43" s="36"/>
       <c r="H43" s="16" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:10">
       <c r="C44">
         <v>14</v>
       </c>
@@ -3847,40 +3897,40 @@
         <v>302</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F44" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>172</v>
-      </c>
       <c r="H44" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:10">
       <c r="D45" s="9"/>
       <c r="E45" s="31"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10">
       <c r="D46" s="36"/>
       <c r="E46" s="37"/>
       <c r="F46" s="36"/>
       <c r="G46" s="36"/>
       <c r="H46" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:10">
       <c r="C47">
         <v>8</v>
       </c>
@@ -3888,39 +3938,39 @@
         <v>203</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F47" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>173</v>
-      </c>
       <c r="H47" s="12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10">
       <c r="D48" s="9"/>
       <c r="E48" s="31"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
       <c r="D49" s="36"/>
       <c r="E49" s="37"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36"/>
       <c r="H49" s="16" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:10">
       <c r="C50">
         <v>5</v>
       </c>
@@ -3928,39 +3978,39 @@
         <v>105</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
       <c r="D51" s="9"/>
       <c r="E51" s="31"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
       <c r="D52" s="36"/>
       <c r="E52" s="37"/>
       <c r="F52" s="36"/>
       <c r="G52" s="36"/>
       <c r="H52" s="16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:10">
       <c r="C53">
         <v>15</v>
       </c>
@@ -3968,271 +4018,271 @@
         <v>303</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
       <c r="D54" s="9"/>
       <c r="E54" s="31"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.45">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
       <c r="F55" s="36"/>
       <c r="G55" s="36"/>
       <c r="H55" s="16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:10">
       <c r="C56">
         <v>9</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.45">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10">
       <c r="D58" s="36"/>
       <c r="E58" s="36"/>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
       <c r="H58" s="16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:10">
       <c r="C59">
         <v>10</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10">
       <c r="D61" s="36"/>
       <c r="E61" s="36"/>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
       <c r="H61" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:10">
       <c r="C62">
         <v>11</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10">
       <c r="D63" s="9"/>
       <c r="E63" s="31"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10">
       <c r="D64" s="36"/>
       <c r="E64" s="37"/>
       <c r="F64" s="36"/>
       <c r="G64" s="36"/>
       <c r="H64" s="16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:8">
       <c r="C65">
         <v>12</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
       <c r="H66" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8">
       <c r="H67" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8">
       <c r="D68" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8">
       <c r="D69" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8">
       <c r="D70" s="28" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E70" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="D71" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E71" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8">
+      <c r="D72" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D71" s="28" t="s">
+    <row r="73" spans="3:8">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="3:8">
+      <c r="D74" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="D75" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="D76" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8">
+      <c r="D77" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="D78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8">
+      <c r="D79" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8">
+      <c r="D80" t="s">
         <v>325</v>
       </c>
-      <c r="E71" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D72" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D74" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D75" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D76" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D77" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D79" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="D80" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="3:6">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:6">
       <c r="F86">
         <f>+F87</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="3:6">
       <c r="C91" s="1"/>
     </row>
   </sheetData>
@@ -4249,201 +4299,201 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="3" spans="2:5" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:5" ht="23">
       <c r="B3" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="48" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="45" t="s">
+      <c r="D6" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="30" t="s">
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="48" t="s">
+      <c r="D7" t="s">
         <v>254</v>
       </c>
-      <c r="D6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C7" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="16"/>
       <c r="C8" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D10" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="2:5">
+      <c r="C11" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="40" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C10" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C11" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="40" t="s">
-        <v>272</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" s="47" t="s">
+    <row r="19" spans="2:6">
+      <c r="B19" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="47" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B18" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D18" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="47" t="s">
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="47" t="s">
+      <c r="D25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="47" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
         <v>275</v>
       </c>
-      <c r="D22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="47" t="s">
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
+      <c r="D30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="D25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="47" t="s">
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="47" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" t="s">
+    <row r="33" spans="2:4">
+      <c r="B33" s="47" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B30" t="s">
+    <row r="35" spans="2:4">
+      <c r="B35" t="s">
         <v>280</v>
       </c>
-      <c r="D30" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B31" s="47" t="s">
+      <c r="D35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="47" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="47" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="47" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>284</v>
-      </c>
-      <c r="D35" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="47" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
